--- a/Masters_Scores.xlsx
+++ b/Masters_Scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasgwartz/Desktop/Job/Projects/Python/Masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9648D5-2661-CF48-832B-CBE1663776B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2DDC4B-0F49-B846-A4EF-3575663FC8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{67E4DBFB-4AA8-0A4F-A49D-EE0116D15928}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{67E4DBFB-4AA8-0A4F-A49D-EE0116D15928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Horton Smith</t>
   </si>
@@ -346,12 +346,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,6 +354,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,9 +378,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -418,7 +418,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -524,7 +524,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -666,7 +666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -674,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADD9961-473D-E04F-B264-B4AF03F2105D}">
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,8 +743,8 @@
       <c r="P1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
       <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -761,7 +761,7 @@
         <v>70</v>
       </c>
       <c r="E2" s="3">
-        <f>$D2-72</f>
+        <f t="shared" ref="E2:E33" si="0">$D2-72</f>
         <v>-2</v>
       </c>
       <c r="F2" s="3">
@@ -771,11 +771,11 @@
         <v>1</v>
       </c>
       <c r="H2" s="3">
-        <f>$F2-$D2</f>
+        <f t="shared" ref="H2:H33" si="1">$F2-$D2</f>
         <v>72</v>
       </c>
       <c r="I2" s="3">
-        <f>$H2-72</f>
+        <f t="shared" ref="I2:I33" si="2">$H2-72</f>
         <v>0</v>
       </c>
       <c r="J2" s="3">
@@ -785,26 +785,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="3">
-        <f>J2-F2</f>
+        <f t="shared" ref="L2:L33" si="3">J2-F2</f>
         <v>70</v>
       </c>
       <c r="M2" s="3">
-        <f>$L2-72</f>
+        <f t="shared" ref="M2:M33" si="4">$L2-72</f>
         <v>-2</v>
       </c>
       <c r="N2" s="3">
         <v>284</v>
       </c>
       <c r="O2" s="3">
-        <f>$N2-$J2</f>
+        <f t="shared" ref="O2:O33" si="5">$N2-$J2</f>
         <v>72</v>
       </c>
       <c r="P2" s="4">
-        <f>O2-72</f>
+        <f t="shared" ref="P2:P33" si="6">O2-72</f>
         <v>0</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
       <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -821,7 +821,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="3">
-        <f>$D3-72</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="F3" s="3">
@@ -831,11 +831,11 @@
         <v>2</v>
       </c>
       <c r="H3" s="3">
-        <f>$F3-$D3</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="I3" s="3">
-        <f>$H3-72</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J3" s="3">
@@ -845,26 +845,26 @@
         <v>4</v>
       </c>
       <c r="L3" s="3">
-        <f>J3-F3</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="M3" s="3">
-        <f>$L3-72</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N3" s="3">
         <v>282</v>
       </c>
       <c r="O3" s="3">
-        <f>$N3-$J3</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="P3" s="4">
-        <f>O3-72</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
       <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -881,7 +881,7 @@
         <v>74</v>
       </c>
       <c r="E4" s="3">
-        <f>$D4-72</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F4" s="3">
@@ -891,11 +891,11 @@
         <v>4</v>
       </c>
       <c r="H4" s="3">
-        <f>$F4-$D4</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="I4" s="3">
-        <f>$H4-72</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J4" s="3">
@@ -905,26 +905,26 @@
         <v>2</v>
       </c>
       <c r="L4" s="3">
-        <f>J4-F4</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="M4" s="3">
-        <f>$L4-72</f>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="N4" s="3">
         <v>285</v>
       </c>
       <c r="O4" s="3">
-        <f>$N4-$J4</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="P4" s="4">
-        <f>O4-72</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
       <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -941,7 +941,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="3">
-        <f>$D5-72</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="F5" s="3">
@@ -951,11 +951,11 @@
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <f>$F5-$D5</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="I5" s="3">
-        <f>$H5-72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" s="3">
@@ -965,26 +965,26 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <f>J5-F5</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="M5" s="3">
-        <f>$L5-72</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N5" s="3">
         <v>283</v>
       </c>
       <c r="O5" s="3">
-        <f>$N5-$J5</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="P5" s="4">
-        <f>O5-72</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1001,7 +1001,7 @@
         <v>71</v>
       </c>
       <c r="E6" s="3">
-        <f>$D6-72</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="F6" s="3">
@@ -1011,11 +1011,11 @@
         <v>2</v>
       </c>
       <c r="H6" s="3">
-        <f>$F6-$D6</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="I6" s="3">
-        <f>$H6-72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="3">
@@ -1025,26 +1025,26 @@
         <v>1</v>
       </c>
       <c r="L6" s="3">
-        <f>J6-F6</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="M6" s="3">
-        <f>$L6-72</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N6" s="3">
         <v>285</v>
       </c>
       <c r="O6" s="3">
-        <f>$N6-$J6</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="P6" s="4">
-        <f>O6-72</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
         <v>72</v>
       </c>
       <c r="E7" s="3">
-        <f>$D7-72</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="3">
@@ -1071,11 +1071,11 @@
         <v>2</v>
       </c>
       <c r="H7" s="3">
-        <f>$F7-$D7</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="I7" s="3">
-        <f>$H7-72</f>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="J7" s="3">
@@ -1085,26 +1085,26 @@
         <v>1</v>
       </c>
       <c r="L7" s="3">
-        <f>J7-F7</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M7" s="3">
-        <f>$L7-72</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="N7" s="3">
         <v>279</v>
       </c>
       <c r="O7" s="3">
-        <f>$N7-$J7</f>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="P7" s="4">
-        <f>O7-72</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1121,7 +1121,7 @@
         <v>67</v>
       </c>
       <c r="E8" s="3">
-        <f>$D8-72</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="F8" s="3">
@@ -1131,11 +1131,11 @@
         <v>1</v>
       </c>
       <c r="H8" s="3">
-        <f>$F8-$D8</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="I8" s="3">
-        <f>$H8-72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8" s="3">
@@ -1145,26 +1145,26 @@
         <v>1</v>
       </c>
       <c r="L8" s="3">
-        <f>J8-F8</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M8" s="3">
-        <f>$L8-72</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="N8" s="3">
         <v>280</v>
       </c>
       <c r="O8" s="3">
-        <f>$N8-$J8</f>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="P8" s="4">
-        <f>O8-72</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1181,7 +1181,7 @@
         <v>66</v>
       </c>
       <c r="E9" s="3">
-        <f>$D9-72</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="F9" s="3">
@@ -1191,11 +1191,11 @@
         <v>1</v>
       </c>
       <c r="H9" s="3">
-        <f>$F9-$D9</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="I9" s="3">
-        <f>$H9-72</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J9" s="3">
@@ -1205,26 +1205,26 @@
         <v>1</v>
       </c>
       <c r="L9" s="3">
-        <f>J9-F9</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="M9" s="3">
-        <f>$L9-72</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="N9" s="3">
         <v>280</v>
       </c>
       <c r="O9" s="3">
-        <f>$N9-$J9</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="P9" s="4">
-        <f>O9-72</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1241,7 +1241,7 @@
         <v>68</v>
       </c>
       <c r="E10" s="3">
-        <f>$D10-72</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="F10" s="3">
@@ -1251,11 +1251,11 @@
         <v>1</v>
       </c>
       <c r="H10" s="3">
-        <f>$F10-$D10</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="I10" s="3">
-        <f>$H10-72</f>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="J10" s="3">
@@ -1265,26 +1265,26 @@
         <v>1</v>
       </c>
       <c r="L10" s="3">
-        <f>J10-F10</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="M10" s="3">
-        <f>$L10-72</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>280</v>
       </c>
       <c r="O10" s="3">
-        <f>$N10-$J10</f>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="P10" s="4">
-        <f>O10-72</f>
-        <v>1</v>
-      </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1301,7 +1301,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="3">
-        <f>$D11-72</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="F11" s="3">
@@ -1311,11 +1311,11 @@
         <v>1</v>
       </c>
       <c r="H11" s="3">
-        <f>$F11-$D11</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="I11" s="3">
-        <f>$H11-72</f>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="J11" s="3">
@@ -1325,26 +1325,26 @@
         <v>1</v>
       </c>
       <c r="L11" s="3">
-        <f>J11-F11</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="M11" s="3">
-        <f>$L11-72</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="N11" s="3">
         <v>282</v>
       </c>
       <c r="O11" s="3">
-        <f>$N11-$J11</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="P11" s="4">
-        <f>O11-72</f>
-        <v>2</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1361,7 +1361,7 @@
         <v>69</v>
       </c>
       <c r="E12" s="3">
-        <f>$D12-72</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="F12" s="3">
@@ -1371,11 +1371,11 @@
         <v>1</v>
       </c>
       <c r="H12" s="3">
-        <f>$F12-$D12</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="I12" s="3">
-        <f>$H12-72</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J12" s="3">
@@ -1385,26 +1385,26 @@
         <v>1</v>
       </c>
       <c r="L12" s="3">
-        <f>J12-F12</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M12" s="3">
-        <f>$L12-72</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="N12" s="3">
         <v>281</v>
       </c>
       <c r="O12" s="3">
-        <f>$N12-$J12</f>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="P12" s="4">
-        <f>O12-72</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1421,7 +1421,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="3">
-        <f>$D13-72</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="F13" s="3">
@@ -1431,11 +1431,11 @@
         <v>2</v>
       </c>
       <c r="H13" s="3">
-        <f>$F13-$D13</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I13" s="3">
-        <f>$H13-72</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="J13" s="3">
@@ -1445,26 +1445,26 @@
         <v>1</v>
       </c>
       <c r="L13" s="3">
-        <f>J13-F13</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="M13" s="3">
-        <f>$L13-72</f>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="N13" s="3">
         <v>279</v>
       </c>
       <c r="O13" s="3">
-        <f>$N13-$J13</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="P13" s="4">
-        <f>O13-72</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>73</v>
       </c>
       <c r="E14" s="3">
-        <f>$D14-72</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14" s="3">
@@ -1491,11 +1491,11 @@
         <v>14</v>
       </c>
       <c r="H14" s="3">
-        <f>$F14-$D14</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="I14" s="3">
-        <f>$H14-72</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J14" s="3">
@@ -1505,26 +1505,26 @@
         <v>2</v>
       </c>
       <c r="L14" s="3">
-        <f>J14-F14</f>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="M14" s="3">
-        <f>$L14-72</f>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
       <c r="N14" s="3">
         <v>282</v>
       </c>
       <c r="O14" s="3">
-        <f>$N14-$J14</f>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="P14" s="4">
-        <f>O14-72</f>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1541,7 +1541,7 @@
         <v>70</v>
       </c>
       <c r="E15" s="3">
-        <f>$D15-72</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="F15" s="3">
@@ -1551,11 +1551,11 @@
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <f>$F15-$D15</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="I15" s="3">
-        <f>$H15-72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="3">
@@ -1565,26 +1565,26 @@
         <v>3</v>
       </c>
       <c r="L15" s="3">
-        <f>J15-F15</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="M15" s="3">
-        <f>$L15-72</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>283</v>
       </c>
       <c r="O15" s="3">
-        <f>$N15-$J15</f>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="P15" s="4">
-        <f>O15-72</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1601,7 +1601,7 @@
         <v>70</v>
       </c>
       <c r="E16" s="3">
-        <f>$D16-72</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="F16" s="3">
@@ -1611,11 +1611,11 @@
         <v>2</v>
       </c>
       <c r="H16" s="3">
-        <f>$F16-$D16</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="I16" s="3">
-        <f>$H16-72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="3">
@@ -1625,26 +1625,26 @@
         <v>3</v>
       </c>
       <c r="L16" s="3">
-        <f>J16-F16</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M16" s="3">
-        <f>$L16-72</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="N16" s="3">
         <v>280</v>
       </c>
       <c r="O16" s="3">
-        <f>$N16-$J16</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="P16" s="4">
-        <f>O16-72</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1661,7 +1661,7 @@
         <v>70</v>
       </c>
       <c r="E17" s="3">
-        <f>$D17-72</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="F17" s="3">
@@ -1671,11 +1671,11 @@
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <f>$F17-$D17</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="I17" s="3">
-        <f>$H17-72</f>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="J17" s="3">
@@ -1685,26 +1685,26 @@
         <v>1</v>
       </c>
       <c r="L17" s="3">
-        <f>J17-F17</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="M17" s="3">
-        <f>$L17-72</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N17" s="3">
         <v>286</v>
       </c>
       <c r="O17" s="3">
-        <f>$N17-$J17</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="P17" s="4">
-        <f>O17-72</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
         <v>70</v>
       </c>
       <c r="E18" s="3">
-        <f>$D18-72</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="F18" s="3">
@@ -1731,11 +1731,11 @@
         <v>1</v>
       </c>
       <c r="H18" s="3">
-        <f>$F18-$D18</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="I18" s="3">
-        <f>$H18-72</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="J18" s="3">
@@ -1745,26 +1745,26 @@
         <v>1</v>
       </c>
       <c r="L18" s="3">
-        <f>J18-F18</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="M18" s="3">
-        <f>$L18-72</f>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
       <c r="N18" s="3">
         <v>274</v>
       </c>
       <c r="O18" s="3">
-        <f>$N18-$J18</f>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="P18" s="4">
-        <f>O18-72</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1781,7 +1781,7 @@
         <v>74</v>
       </c>
       <c r="E19" s="3">
-        <f>$D19-72</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F19" s="3">
@@ -1791,11 +1791,11 @@
         <v>5</v>
       </c>
       <c r="H19" s="3">
-        <f>$F19-$D19</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="I19" s="3">
-        <f>$H19-72</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J19" s="3">
@@ -1805,26 +1805,26 @@
         <v>2</v>
       </c>
       <c r="L19" s="3">
-        <f>J19-F19</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M19" s="3">
-        <f>$L19-72</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="N19" s="3">
         <v>289</v>
       </c>
       <c r="O19" s="3">
-        <f>$N19-$J19</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="P19" s="4">
-        <f>O19-72</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1841,7 +1841,7 @@
         <v>72</v>
       </c>
       <c r="E20" s="3">
-        <f>$D20-72</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="3">
@@ -1851,11 +1851,11 @@
         <v>1</v>
       </c>
       <c r="H20" s="3">
-        <f>$F20-$D20</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I20" s="3">
-        <f>$H20-72</f>
+        <f t="shared" si="2"/>
         <v>-7</v>
       </c>
       <c r="J20" s="3">
@@ -1865,26 +1865,26 @@
         <v>1</v>
       </c>
       <c r="L20" s="3">
-        <f>J20-F20</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="M20" s="3">
-        <f>$L20-72</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>279</v>
       </c>
       <c r="O20" s="3">
-        <f>$N20-$J20</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="P20" s="4">
-        <f>O20-72</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1901,7 +1901,7 @@
         <v>72</v>
       </c>
       <c r="E21" s="3">
-        <f>$D21-72</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="3">
@@ -1911,11 +1911,11 @@
         <v>7</v>
       </c>
       <c r="H21" s="3">
-        <f>$F21-$D21</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="I21" s="3">
-        <f>$H21-72</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J21" s="3">
@@ -1925,26 +1925,26 @@
         <v>4</v>
       </c>
       <c r="L21" s="3">
-        <f>J21-F21</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="M21" s="3">
-        <f>$L21-72</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N21" s="3">
         <v>289</v>
       </c>
       <c r="O21" s="3">
-        <f>$N21-$J21</f>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="P21" s="4">
-        <f>O21-72</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -1961,7 +1961,7 @@
         <v>72</v>
       </c>
       <c r="E22" s="3">
-        <f>$D22-72</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="3">
@@ -1971,11 +1971,11 @@
         <v>6</v>
       </c>
       <c r="H22" s="3">
-        <f>$F22-$D22</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="I22" s="3">
-        <f>$H22-72</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J22" s="3">
@@ -1985,26 +1985,26 @@
         <v>6</v>
       </c>
       <c r="L22" s="3">
-        <f>J22-F22</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="M22" s="3">
-        <f>$L22-72</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>283</v>
       </c>
       <c r="O22" s="3">
-        <f>$N22-$J22</f>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="P22" s="4">
-        <f>O22-72</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2021,7 +2021,7 @@
         <v>70</v>
       </c>
       <c r="E23" s="3">
-        <f>$D23-72</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="F23" s="3">
@@ -2031,11 +2031,11 @@
         <v>6</v>
       </c>
       <c r="H23" s="3">
-        <f>$F23-$D23</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="I23" s="3">
-        <f>$H23-72</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J23" s="3">
@@ -2045,26 +2045,26 @@
         <v>1</v>
       </c>
       <c r="L23" s="3">
-        <f>J23-F23</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="M23" s="3">
-        <f>$L23-72</f>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="N23" s="3">
         <v>284</v>
       </c>
       <c r="O23" s="3">
-        <f>$N23-$J23</f>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="P23" s="4">
-        <f>O23-72</f>
-        <v>1</v>
-      </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2081,7 +2081,7 @@
         <v>73</v>
       </c>
       <c r="E24" s="3">
-        <f>$D24-72</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24" s="3">
@@ -2091,11 +2091,11 @@
         <v>21</v>
       </c>
       <c r="H24" s="3">
-        <f>$F24-$D24</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="I24" s="3">
-        <f>$H24-72</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J24" s="3">
@@ -2105,26 +2105,26 @@
         <v>13</v>
       </c>
       <c r="L24" s="3">
-        <f>J24-F24</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="M24" s="3">
-        <f>$L24-72</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="N24" s="3">
         <v>284</v>
       </c>
       <c r="O24" s="3">
-        <f>$N24-$J24</f>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="P24" s="4">
-        <f>O24-72</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2141,7 +2141,7 @@
         <v>67</v>
       </c>
       <c r="E25" s="3">
-        <f>$D25-72</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="F25" s="3">
@@ -2151,11 +2151,11 @@
         <v>1</v>
       </c>
       <c r="H25" s="3">
-        <f>$F25-$D25</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="I25" s="3">
-        <f>$H25-72</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J25" s="3">
@@ -2165,26 +2165,26 @@
         <v>1</v>
       </c>
       <c r="L25" s="3">
-        <f>J25-F25</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="M25" s="3">
-        <f>$L25-72</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N25" s="3">
         <v>282</v>
       </c>
       <c r="O25" s="3">
-        <f>$N25-$J25</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="P25" s="4">
-        <f>O25-72</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2201,7 +2201,7 @@
         <v>69</v>
       </c>
       <c r="E26" s="3">
-        <f>$D26-72</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="F26" s="3">
@@ -2211,11 +2211,11 @@
         <v>1</v>
       </c>
       <c r="H26" s="3">
-        <f>$F26-$D26</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="I26" s="3">
-        <f>$H26-72</f>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="J26" s="3">
@@ -2225,26 +2225,26 @@
         <v>1</v>
       </c>
       <c r="L26" s="3">
-        <f>J26-F26</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="M26" s="3">
-        <f>$L26-72</f>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="N26" s="3">
         <v>280</v>
       </c>
       <c r="O26" s="3">
-        <f>$N26-$J26</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="P26" s="4">
-        <f>O26-72</f>
-        <v>2</v>
-      </c>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2261,7 +2261,7 @@
         <v>70</v>
       </c>
       <c r="E27" s="3">
-        <f>$D27-72</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="F27" s="3">
@@ -2271,11 +2271,11 @@
         <v>1</v>
       </c>
       <c r="H27" s="3">
-        <f>$F27-$D27</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="I27" s="3">
-        <f>$H27-72</f>
+        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="J27" s="3">
@@ -2285,26 +2285,26 @@
         <v>1</v>
       </c>
       <c r="L27" s="3">
-        <f>J27-F27</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="M27" s="3">
-        <f>$L27-72</f>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="N27" s="3">
         <v>280</v>
       </c>
       <c r="O27" s="3">
-        <f>$N27-$J27</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="P27" s="4">
-        <f>O27-72</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
       <c r="V27" s="3"/>
     </row>
     <row r="28" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2321,7 +2321,7 @@
         <v>74</v>
       </c>
       <c r="E28" s="3">
-        <f>$D28-72</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F28" s="3">
@@ -2331,11 +2331,11 @@
         <v>2</v>
       </c>
       <c r="H28" s="3">
-        <f>$F28-$D28</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="I28" s="3">
-        <f>$H28-72</f>
+        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="J28" s="3">
@@ -2345,26 +2345,26 @@
         <v>1</v>
       </c>
       <c r="L28" s="3">
-        <f>J28-F28</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="M28" s="3">
-        <f>$L28-72</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N28" s="3">
         <v>286</v>
       </c>
       <c r="O28" s="3">
-        <f>$N28-$J28</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="P28" s="4">
-        <f>O28-72</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
       <c r="V28" s="3"/>
     </row>
     <row r="29" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>69</v>
       </c>
       <c r="E29" s="3">
-        <f>$D29-72</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="F29" s="3">
@@ -2391,11 +2391,11 @@
         <v>1</v>
       </c>
       <c r="H29" s="3">
-        <f>$F29-$D29</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="I29" s="3">
-        <f>$H29-72</f>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="J29" s="3">
@@ -2405,26 +2405,26 @@
         <v>1</v>
       </c>
       <c r="L29" s="3">
-        <f>J29-F29</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="M29" s="3">
-        <f>$L29-72</f>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="N29" s="3">
         <v>276</v>
       </c>
       <c r="O29" s="3">
-        <f>$N29-$J29</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="P29" s="4">
-        <f>O29-72</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
       <c r="V29" s="3"/>
     </row>
     <row r="30" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2441,7 +2441,7 @@
         <v>67</v>
       </c>
       <c r="E30" s="3">
-        <f>$D30-72</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="F30" s="3">
@@ -2451,11 +2451,11 @@
         <v>1</v>
       </c>
       <c r="H30" s="3">
-        <f>$F30-$D30</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="I30" s="3">
-        <f>$H30-72</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J30" s="3">
@@ -2465,26 +2465,26 @@
         <v>1</v>
       </c>
       <c r="L30" s="3">
-        <f>J30-F30</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="M30" s="3">
-        <f>$L30-72</f>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="N30" s="3">
         <v>271</v>
       </c>
       <c r="O30" s="3">
-        <f>$N30-$J30</f>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="P30" s="4">
-        <f>O30-72</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
       <c r="V30" s="3"/>
     </row>
     <row r="31" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2501,7 +2501,7 @@
         <v>68</v>
       </c>
       <c r="E31" s="3">
-        <f>$D31-72</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="F31" s="3">
@@ -2511,11 +2511,11 @@
         <v>3</v>
       </c>
       <c r="H31" s="3">
-        <f>$F31-$D31</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="I31" s="3">
-        <f>$H31-72</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J31" s="3">
@@ -2525,26 +2525,26 @@
         <v>1</v>
       </c>
       <c r="L31" s="3">
-        <f>J31-F31</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="M31" s="3">
-        <f>$L31-72</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N31" s="3">
         <v>288</v>
       </c>
       <c r="O31" s="3">
-        <f>$N31-$J31</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="P31" s="4">
-        <f>O31-72</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
       <c r="V31" s="3"/>
     </row>
     <row r="32" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2561,7 +2561,7 @@
         <v>73</v>
       </c>
       <c r="E32" s="3">
-        <f>$D32-72</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32" s="3">
@@ -2571,11 +2571,11 @@
         <v>2</v>
       </c>
       <c r="H32" s="3">
-        <f>$F32-$D32</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="I32" s="3">
-        <f>$H32-72</f>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="J32" s="3">
@@ -2585,26 +2585,26 @@
         <v>4</v>
       </c>
       <c r="L32" s="3">
-        <f>J32-F32</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="M32" s="3">
-        <f>$L32-72</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>280</v>
       </c>
       <c r="O32" s="3">
-        <f>$N32-$J32</f>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="P32" s="4">
-        <f>O32-72</f>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
       <c r="V32" s="3"/>
     </row>
     <row r="33" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2621,7 +2621,7 @@
         <v>70</v>
       </c>
       <c r="E33" s="3">
-        <f>$D33-72</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="F33" s="3">
@@ -2631,11 +2631,11 @@
         <v>3</v>
       </c>
       <c r="H33" s="3">
-        <f>$F33-$D33</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I33" s="3">
-        <f>$H33-72</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="J33" s="3">
@@ -2645,26 +2645,26 @@
         <v>2</v>
       </c>
       <c r="L33" s="3">
-        <f>J33-F33</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="M33" s="3">
-        <f>$L33-72</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="N33" s="3">
         <v>277</v>
       </c>
       <c r="O33" s="3">
-        <f>$N33-$J33</f>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="P33" s="4">
-        <f>O33-72</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
       <c r="V33" s="3"/>
     </row>
     <row r="34" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2681,7 +2681,7 @@
         <v>67</v>
       </c>
       <c r="E34" s="3">
-        <f>$D34-72</f>
+        <f t="shared" ref="E34:E65" si="7">$D34-72</f>
         <v>-5</v>
       </c>
       <c r="F34" s="3">
@@ -2691,11 +2691,11 @@
         <v>3</v>
       </c>
       <c r="H34" s="3">
-        <f>$F34-$D34</f>
+        <f t="shared" ref="H34:H65" si="8">$F34-$D34</f>
         <v>73</v>
       </c>
       <c r="I34" s="3">
-        <f>$H34-72</f>
+        <f t="shared" ref="I34:I65" si="9">$H34-72</f>
         <v>1</v>
       </c>
       <c r="J34" s="3">
@@ -2705,26 +2705,26 @@
         <v>2</v>
       </c>
       <c r="L34" s="3">
-        <f>J34-F34</f>
+        <f t="shared" ref="L34:L65" si="10">J34-F34</f>
         <v>69</v>
       </c>
       <c r="M34" s="3">
-        <f>$L34-72</f>
+        <f t="shared" ref="M34:M65" si="11">$L34-72</f>
         <v>-3</v>
       </c>
       <c r="N34" s="3">
         <v>281</v>
       </c>
       <c r="O34" s="3">
-        <f>$N34-$J34</f>
+        <f t="shared" ref="O34:O65" si="12">$N34-$J34</f>
         <v>72</v>
       </c>
       <c r="P34" s="4">
-        <f>O34-72</f>
+        <f t="shared" ref="P34:P65" si="13">O34-72</f>
         <v>0</v>
       </c>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
       <c r="V34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2741,7 +2741,7 @@
         <v>72</v>
       </c>
       <c r="E35" s="3">
-        <f>$D35-72</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F35" s="3">
@@ -2751,11 +2751,11 @@
         <v>3</v>
       </c>
       <c r="H35" s="3">
-        <f>$F35-$D35</f>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="I35" s="3">
-        <f>$H35-72</f>
+        <f t="shared" si="9"/>
         <v>-4</v>
       </c>
       <c r="J35" s="3">
@@ -2765,26 +2765,26 @@
         <v>1</v>
       </c>
       <c r="L35" s="3">
-        <f>J35-F35</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="M35" s="3">
-        <f>$L35-72</f>
+        <f t="shared" si="11"/>
         <v>-4</v>
       </c>
       <c r="N35" s="3">
         <v>279</v>
       </c>
       <c r="O35" s="3">
-        <f>$N35-$J35</f>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="P35" s="4">
-        <f>O35-72</f>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
       <c r="V35" s="3"/>
     </row>
     <row r="36" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2801,7 +2801,7 @@
         <v>66</v>
       </c>
       <c r="E36" s="3">
-        <f>$D36-72</f>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="F36" s="3">
@@ -2811,11 +2811,11 @@
         <v>2</v>
       </c>
       <c r="H36" s="3">
-        <f>$F36-$D36</f>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="I36" s="3">
-        <f>$H36-72</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J36" s="3">
@@ -2825,26 +2825,26 @@
         <v>1</v>
       </c>
       <c r="L36" s="3">
-        <f>J36-F36</f>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="M36" s="3">
-        <f>$L36-72</f>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="N36" s="3">
         <v>279</v>
       </c>
       <c r="O36" s="3">
-        <f>$N36-$J36</f>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="P36" s="4">
-        <f>O36-72</f>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
       <c r="V36" s="3"/>
     </row>
     <row r="37" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2861,7 +2861,7 @@
         <v>68</v>
       </c>
       <c r="E37" s="3">
-        <f>$D37-72</f>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="F37" s="3">
@@ -2871,11 +2871,11 @@
         <v>1</v>
       </c>
       <c r="H37" s="3">
-        <f>$F37-$D37</f>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="I37" s="3">
-        <f>$H37-72</f>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J37" s="3">
@@ -2885,26 +2885,26 @@
         <v>1</v>
       </c>
       <c r="L37" s="3">
-        <f>J37-F37</f>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="M37" s="3">
-        <f>$L37-72</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N37" s="3">
         <v>286</v>
       </c>
       <c r="O37" s="3">
-        <f>$N37-$J37</f>
+        <f t="shared" si="12"/>
         <v>74</v>
       </c>
       <c r="P37" s="4">
-        <f>O37-72</f>
-        <v>2</v>
-      </c>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
       <c r="V37" s="3"/>
     </row>
     <row r="38" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2921,7 +2921,7 @@
         <v>68</v>
       </c>
       <c r="E38" s="3">
-        <f>$D38-72</f>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="F38" s="3">
@@ -2931,11 +2931,11 @@
         <v>1</v>
       </c>
       <c r="H38" s="3">
-        <f>$F38-$D38</f>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="I38" s="3">
-        <f>$H38-72</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J38" s="3">
@@ -2945,26 +2945,26 @@
         <v>5</v>
       </c>
       <c r="L38" s="3">
-        <f>J38-F38</f>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="M38" s="3">
-        <f>$L38-72</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="N38" s="3">
         <v>283</v>
       </c>
       <c r="O38" s="3">
-        <f>$N38-$J38</f>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="P38" s="4">
-        <f>O38-72</f>
+        <f t="shared" si="13"/>
         <v>-4</v>
       </c>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
       <c r="V38" s="3"/>
     </row>
     <row r="39" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -2981,7 +2981,7 @@
         <v>71</v>
       </c>
       <c r="E39" s="3">
-        <f>$D39-72</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="F39" s="3">
@@ -2991,11 +2991,11 @@
         <v>16</v>
       </c>
       <c r="H39" s="3">
-        <f>$F39-$D39</f>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="I39" s="3">
-        <f>$H39-72</f>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J39" s="3">
@@ -3005,26 +3005,26 @@
         <v>2</v>
       </c>
       <c r="L39" s="3">
-        <f>J39-F39</f>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="M39" s="3">
-        <f>$L39-72</f>
+        <f t="shared" si="11"/>
         <v>-6</v>
       </c>
       <c r="N39" s="3">
         <v>278</v>
       </c>
       <c r="O39" s="3">
-        <f>$N39-$J39</f>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="P39" s="4">
-        <f>O39-72</f>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
       <c r="V39" s="3"/>
     </row>
     <row r="40" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3041,7 +3041,7 @@
         <v>68</v>
       </c>
       <c r="E40" s="3">
-        <f>$D40-72</f>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="F40" s="3">
@@ -3051,11 +3051,11 @@
         <v>1</v>
       </c>
       <c r="H40" s="3">
-        <f>$F40-$D40</f>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="I40" s="3">
-        <f>$H40-72</f>
+        <f t="shared" si="9"/>
         <v>-5</v>
       </c>
       <c r="J40" s="3">
@@ -3065,26 +3065,26 @@
         <v>2</v>
       </c>
       <c r="L40" s="3">
-        <f>J40-F40</f>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="M40" s="3">
-        <f>$L40-72</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N40" s="3">
         <v>276</v>
       </c>
       <c r="O40" s="3">
-        <f>$N40-$J40</f>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="P40" s="4">
-        <f>O40-72</f>
+        <f t="shared" si="13"/>
         <v>-4</v>
       </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
       <c r="V40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3101,7 +3101,7 @@
         <v>65</v>
       </c>
       <c r="E41" s="3">
-        <f>$D41-72</f>
+        <f t="shared" si="7"/>
         <v>-7</v>
       </c>
       <c r="F41" s="3">
@@ -3111,11 +3111,11 @@
         <v>1</v>
       </c>
       <c r="H41" s="3">
-        <f>$F41-$D41</f>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="I41" s="3">
-        <f>$H41-72</f>
+        <f t="shared" si="9"/>
         <v>-6</v>
       </c>
       <c r="J41" s="3">
@@ -3125,26 +3125,26 @@
         <v>1</v>
       </c>
       <c r="L41" s="3">
-        <f>J41-F41</f>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="M41" s="3">
-        <f>$L41-72</f>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="N41" s="3">
         <v>271</v>
       </c>
       <c r="O41" s="3">
-        <f>$N41-$J41</f>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="P41" s="4">
-        <f>O41-72</f>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
       <c r="V41" s="3"/>
     </row>
     <row r="42" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3161,7 +3161,7 @@
         <v>70</v>
       </c>
       <c r="E42" s="3">
-        <f>$D42-72</f>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="F42" s="3">
@@ -3171,11 +3171,11 @@
         <v>1</v>
       </c>
       <c r="H42" s="3">
-        <f>$F42-$D42</f>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="I42" s="3">
-        <f>$H42-72</f>
+        <f t="shared" si="9"/>
         <v>-3</v>
       </c>
       <c r="J42" s="3">
@@ -3185,26 +3185,26 @@
         <v>1</v>
       </c>
       <c r="L42" s="3">
-        <f>J42-F42</f>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="M42" s="3">
-        <f>$L42-72</f>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="N42" s="3">
         <v>276</v>
       </c>
       <c r="O42" s="3">
-        <f>$N42-$J42</f>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="P42" s="4">
-        <f>O42-72</f>
+        <f t="shared" si="13"/>
         <v>-5</v>
       </c>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
       <c r="V42" s="3"/>
     </row>
     <row r="43" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3221,7 +3221,7 @@
         <v>72</v>
       </c>
       <c r="E43" s="3">
-        <f>$D43-72</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F43" s="3">
@@ -3231,11 +3231,11 @@
         <v>16</v>
       </c>
       <c r="H43" s="3">
-        <f>$F43-$D43</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="I43" s="3">
-        <f>$H43-72</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J43" s="3">
@@ -3245,26 +3245,26 @@
         <v>10</v>
       </c>
       <c r="L43" s="3">
-        <f>J43-F43</f>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="M43" s="3">
-        <f>$L43-72</f>
+        <f t="shared" si="11"/>
         <v>-3</v>
       </c>
       <c r="N43" s="3">
         <v>277</v>
       </c>
       <c r="O43" s="3">
-        <f>$N43-$J43</f>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="P43" s="4">
-        <f>O43-72</f>
+        <f t="shared" si="13"/>
         <v>-8</v>
       </c>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
       <c r="V43" s="3"/>
     </row>
     <row r="44" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3281,7 +3281,7 @@
         <v>70</v>
       </c>
       <c r="E44" s="3">
-        <f>$D44-72</f>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="F44" s="3">
@@ -3291,11 +3291,11 @@
         <v>12</v>
       </c>
       <c r="H44" s="3">
-        <f>$F44-$D44</f>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="I44" s="3">
-        <f>$H44-72</f>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J44" s="3">
@@ -3305,26 +3305,26 @@
         <v>4</v>
       </c>
       <c r="L44" s="3">
-        <f>J44-F44</f>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="M44" s="3">
-        <f>$L44-72</f>
+        <f t="shared" si="11"/>
         <v>-3</v>
       </c>
       <c r="N44" s="3">
         <v>280</v>
       </c>
       <c r="O44" s="3">
-        <f>$N44-$J44</f>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="P44" s="4">
-        <f>O44-72</f>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
       <c r="V44" s="3"/>
     </row>
     <row r="45" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3341,7 +3341,7 @@
         <v>66</v>
       </c>
       <c r="E45" s="3">
-        <f>$D45-72</f>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="F45" s="3">
@@ -3351,11 +3351,11 @@
         <v>1</v>
       </c>
       <c r="H45" s="3">
-        <f>$F45-$D45</f>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="I45" s="3">
-        <f>$H45-72</f>
+        <f t="shared" si="9"/>
         <v>-3</v>
       </c>
       <c r="J45" s="3">
@@ -3365,26 +3365,26 @@
         <v>1</v>
       </c>
       <c r="L45" s="3">
-        <f>J45-F45</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="M45" s="3">
-        <f>$L45-72</f>
+        <f t="shared" si="11"/>
         <v>-4</v>
       </c>
       <c r="N45" s="3">
         <v>275</v>
       </c>
       <c r="O45" s="3">
-        <f>$N45-$J45</f>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="P45" s="4">
-        <f>O45-72</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
       <c r="V45" s="3"/>
     </row>
     <row r="46" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3401,7 +3401,7 @@
         <v>71</v>
       </c>
       <c r="E46" s="3">
-        <f>$D46-72</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="F46" s="3">
@@ -3411,11 +3411,11 @@
         <v>2</v>
       </c>
       <c r="H46" s="3">
-        <f>$F46-$D46</f>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="I46" s="3">
-        <f>$H46-72</f>
+        <f t="shared" si="9"/>
         <v>-4</v>
       </c>
       <c r="J46" s="3">
@@ -3425,26 +3425,26 @@
         <v>1</v>
       </c>
       <c r="L46" s="3">
-        <f>J46-F46</f>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="M46" s="3">
-        <f>$L46-72</f>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="N46" s="3">
         <v>280</v>
       </c>
       <c r="O46" s="3">
-        <f>$N46-$J46</f>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="P46" s="4">
-        <f>O46-72</f>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
       <c r="V46" s="3"/>
     </row>
     <row r="47" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3461,7 +3461,7 @@
         <v>75</v>
       </c>
       <c r="E47" s="3">
-        <f>$D47-72</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="F47" s="3">
@@ -3471,11 +3471,11 @@
         <v>1</v>
       </c>
       <c r="H47" s="3">
-        <f>$F47-$D47</f>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="I47" s="3">
-        <f>$H47-72</f>
+        <f t="shared" si="9"/>
         <v>-3</v>
       </c>
       <c r="J47" s="3">
@@ -3485,26 +3485,26 @@
         <v>1</v>
       </c>
       <c r="L47" s="3">
-        <f>J47-F47</f>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="M47" s="3">
-        <f>$L47-72</f>
+        <f t="shared" si="11"/>
         <v>-5</v>
       </c>
       <c r="N47" s="3">
         <v>284</v>
       </c>
       <c r="O47" s="3">
-        <f>$N47-$J47</f>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
       <c r="P47" s="4">
-        <f>O47-72</f>
-        <v>1</v>
-      </c>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
       <c r="V47" s="3"/>
     </row>
     <row r="48" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3521,7 +3521,7 @@
         <v>68</v>
       </c>
       <c r="E48" s="3">
-        <f>$D48-72</f>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="F48" s="3">
@@ -3531,11 +3531,11 @@
         <v>2</v>
       </c>
       <c r="H48" s="3">
-        <f>$F48-$D48</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="I48" s="3">
-        <f>$H48-72</f>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="J48" s="3">
@@ -3545,26 +3545,26 @@
         <v>3</v>
       </c>
       <c r="L48" s="3">
-        <f>J48-F48</f>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="M48" s="3">
-        <f>$L48-72</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N48" s="3">
         <v>280</v>
       </c>
       <c r="O48" s="3">
-        <f>$N48-$J48</f>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="P48" s="4">
-        <f>O48-72</f>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
       <c r="V48" s="3"/>
     </row>
     <row r="49" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3581,7 +3581,7 @@
         <v>67</v>
       </c>
       <c r="E49" s="3">
-        <f>$D49-72</f>
+        <f t="shared" si="7"/>
         <v>-5</v>
       </c>
       <c r="F49" s="3">
@@ -3591,11 +3591,11 @@
         <v>3</v>
       </c>
       <c r="H49" s="3">
-        <f>$F49-$D49</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="I49" s="3">
-        <f>$H49-72</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J49" s="3">
@@ -3605,26 +3605,26 @@
         <v>3</v>
       </c>
       <c r="L49" s="3">
-        <f>J49-F49</f>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="M49" s="3">
-        <f>$L49-72</f>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="N49" s="3">
         <v>277</v>
       </c>
       <c r="O49" s="3">
-        <f>$N49-$J49</f>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="P49" s="4">
-        <f>O49-72</f>
+        <f t="shared" si="13"/>
         <v>-4</v>
       </c>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
       <c r="V49" s="3"/>
     </row>
     <row r="50" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3641,7 +3641,7 @@
         <v>72</v>
       </c>
       <c r="E50" s="3">
-        <f>$D50-72</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F50" s="3">
@@ -3651,11 +3651,11 @@
         <v>25</v>
       </c>
       <c r="H50" s="3">
-        <f>$F50-$D50</f>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="I50" s="3">
-        <f>$H50-72</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="J50" s="3">
@@ -3665,26 +3665,26 @@
         <v>3</v>
       </c>
       <c r="L50" s="3">
-        <f>J50-F50</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="M50" s="3">
-        <f>$L50-72</f>
+        <f t="shared" si="11"/>
         <v>-4</v>
       </c>
       <c r="N50" s="3">
         <v>282</v>
       </c>
       <c r="O50" s="3">
-        <f>$N50-$J50</f>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="P50" s="4">
-        <f>O50-72</f>
+        <f t="shared" si="13"/>
         <v>-4</v>
       </c>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
       <c r="V50" s="3"/>
     </row>
     <row r="51" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3701,7 +3701,7 @@
         <v>74</v>
       </c>
       <c r="E51" s="3">
-        <f>$D51-72</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F51" s="3">
@@ -3711,11 +3711,11 @@
         <v>17</v>
       </c>
       <c r="H51" s="3">
-        <f>$F51-$D51</f>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="I51" s="3">
-        <f>$H51-72</f>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J51" s="3">
@@ -3725,26 +3725,26 @@
         <v>9</v>
       </c>
       <c r="L51" s="3">
-        <f>J51-F51</f>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="M51" s="3">
-        <f>$L51-72</f>
+        <f t="shared" si="11"/>
         <v>-3</v>
       </c>
       <c r="N51" s="3">
         <v>279</v>
       </c>
       <c r="O51" s="3">
-        <f>$N51-$J51</f>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="P51" s="4">
-        <f>O51-72</f>
+        <f t="shared" si="13"/>
         <v>-7</v>
       </c>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
       <c r="V51" s="3"/>
     </row>
     <row r="52" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3761,7 +3761,7 @@
         <v>70</v>
       </c>
       <c r="E52" s="3">
-        <f>$D52-72</f>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="F52" s="3">
@@ -3771,11 +3771,11 @@
         <v>2</v>
       </c>
       <c r="H52" s="3">
-        <f>$F52-$D52</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="I52" s="3">
-        <f>$H52-72</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J52" s="3">
@@ -3785,26 +3785,26 @@
         <v>5</v>
       </c>
       <c r="L52" s="3">
-        <f>J52-F52</f>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="M52" s="3">
-        <f>$L52-72</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>285</v>
       </c>
       <c r="O52" s="3">
-        <f>$N52-$J52</f>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="P52" s="4">
-        <f>O52-72</f>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
       <c r="V52" s="3"/>
     </row>
     <row r="53" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3821,7 +3821,7 @@
         <v>71</v>
       </c>
       <c r="E53" s="3">
-        <f>$D53-72</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="F53" s="3">
@@ -3831,11 +3831,11 @@
         <v>1</v>
       </c>
       <c r="H53" s="3">
-        <f>$F53-$D53</f>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="I53" s="3">
-        <f>$H53-72</f>
+        <f t="shared" si="9"/>
         <v>-5</v>
       </c>
       <c r="J53" s="3">
@@ -3845,26 +3845,26 @@
         <v>1</v>
       </c>
       <c r="L53" s="3">
-        <f>J53-F53</f>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="M53" s="3">
-        <f>$L53-72</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N53" s="3">
         <v>281</v>
       </c>
       <c r="O53" s="3">
-        <f>$N53-$J53</f>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="P53" s="4">
-        <f>O53-72</f>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
       <c r="V53" s="3"/>
     </row>
     <row r="54" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3881,7 +3881,7 @@
         <v>68</v>
       </c>
       <c r="E54" s="3">
-        <f>$D54-72</f>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="F54" s="3">
@@ -3891,11 +3891,11 @@
         <v>1</v>
       </c>
       <c r="H54" s="3">
-        <f>$F54-$D54</f>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="I54" s="3">
-        <f>$H54-72</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J54" s="3">
@@ -3905,26 +3905,26 @@
         <v>9</v>
       </c>
       <c r="L54" s="3">
-        <f>J54-F54</f>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="M54" s="3">
-        <f>$L54-72</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N54" s="3">
         <v>283</v>
       </c>
       <c r="O54" s="3">
-        <f>$N54-$J54</f>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="P54" s="4">
-        <f>O54-72</f>
+        <f t="shared" si="13"/>
         <v>-7</v>
       </c>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
       <c r="V54" s="3"/>
     </row>
     <row r="55" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -3941,7 +3941,7 @@
         <v>71</v>
       </c>
       <c r="E55" s="3">
-        <f>$D55-72</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="F55" s="3">
@@ -3951,11 +3951,11 @@
         <v>10</v>
       </c>
       <c r="H55" s="3">
-        <f>$F55-$D55</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="I55" s="3">
-        <f>$H55-72</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J55" s="3">
@@ -3965,26 +3965,26 @@
         <v>3</v>
       </c>
       <c r="L55" s="3">
-        <f>J55-F55</f>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="M55" s="3">
-        <f>$L55-72</f>
+        <f t="shared" si="11"/>
         <v>-6</v>
       </c>
       <c r="N55" s="3">
         <v>278</v>
       </c>
       <c r="O55" s="3">
-        <f>$N55-$J55</f>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="P55" s="4">
-        <f>O55-72</f>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
       <c r="V55" s="3"/>
     </row>
     <row r="56" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4001,7 +4001,7 @@
         <v>72</v>
       </c>
       <c r="E56" s="3">
-        <f>$D56-72</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F56" s="3">
@@ -4011,11 +4011,11 @@
         <v>2</v>
       </c>
       <c r="H56" s="3">
-        <f>$F56-$D56</f>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="I56" s="3">
-        <f>$H56-72</f>
+        <f t="shared" si="9"/>
         <v>-6</v>
       </c>
       <c r="J56" s="3">
@@ -4025,26 +4025,26 @@
         <v>1</v>
       </c>
       <c r="L56" s="3">
-        <f>J56-F56</f>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="M56" s="3">
-        <f>$L56-72</f>
+        <f t="shared" si="11"/>
         <v>-5</v>
       </c>
       <c r="N56" s="3">
         <v>277</v>
       </c>
       <c r="O56" s="3">
-        <f>$N56-$J56</f>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="P56" s="4">
-        <f>O56-72</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
       <c r="V56" s="3"/>
     </row>
     <row r="57" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4061,7 +4061,7 @@
         <v>69</v>
       </c>
       <c r="E57" s="3">
-        <f>$D57-72</f>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="F57" s="3">
@@ -4071,11 +4071,11 @@
         <v>3</v>
       </c>
       <c r="H57" s="3">
-        <f>$F57-$D57</f>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="I57" s="3">
-        <f>$H57-72</f>
+        <f t="shared" si="9"/>
         <v>-5</v>
       </c>
       <c r="J57" s="3">
@@ -4085,26 +4085,26 @@
         <v>2</v>
       </c>
       <c r="L57" s="3">
-        <f>J57-F57</f>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="M57" s="3">
-        <f>$L57-72</f>
+        <f t="shared" si="11"/>
         <v>-3</v>
       </c>
       <c r="N57" s="3">
         <v>275</v>
       </c>
       <c r="O57" s="3">
-        <f>$N57-$J57</f>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="P57" s="4">
-        <f>O57-72</f>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
       <c r="V57" s="3"/>
     </row>
     <row r="58" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4121,7 +4121,7 @@
         <v>68</v>
       </c>
       <c r="E58" s="3">
-        <f>$D58-72</f>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="F58" s="3">
@@ -4131,11 +4131,11 @@
         <v>2</v>
       </c>
       <c r="H58" s="3">
-        <f>$F58-$D58</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="I58" s="3">
-        <f>$H58-72</f>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="J58" s="3">
@@ -4145,26 +4145,26 @@
         <v>1</v>
       </c>
       <c r="L58" s="3">
-        <f>J58-F58</f>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="M58" s="3">
-        <f>$L58-72</f>
+        <f t="shared" si="11"/>
         <v>-3</v>
       </c>
       <c r="N58" s="3">
         <v>277</v>
       </c>
       <c r="O58" s="3">
-        <f>$N58-$J58</f>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="P58" s="4">
-        <f>O58-72</f>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
       <c r="V58" s="3"/>
     </row>
     <row r="59" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4181,7 +4181,7 @@
         <v>74</v>
       </c>
       <c r="E59" s="3">
-        <f>$D59-72</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F59" s="3">
@@ -4191,11 +4191,11 @@
         <v>5</v>
       </c>
       <c r="H59" s="3">
-        <f>$F59-$D59</f>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="I59" s="3">
-        <f>$H59-72</f>
+        <f t="shared" si="9"/>
         <v>-5</v>
       </c>
       <c r="J59" s="3">
@@ -4205,26 +4205,26 @@
         <v>2</v>
       </c>
       <c r="L59" s="3">
-        <f>J59-F59</f>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="M59" s="3">
-        <f>$L59-72</f>
+        <f t="shared" si="11"/>
         <v>-3</v>
       </c>
       <c r="N59" s="3">
         <v>279</v>
       </c>
       <c r="O59" s="3">
-        <f>$N59-$J59</f>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="P59" s="4">
-        <f>O59-72</f>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
       <c r="V59" s="3"/>
     </row>
     <row r="60" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4241,7 +4241,7 @@
         <v>70</v>
       </c>
       <c r="E60" s="3">
-        <f>$D60-72</f>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="F60" s="3">
@@ -4251,11 +4251,11 @@
         <v>4</v>
       </c>
       <c r="H60" s="3">
-        <f>$F60-$D60</f>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="I60" s="3">
-        <f>$H60-72</f>
+        <f t="shared" si="9"/>
         <v>-5</v>
       </c>
       <c r="J60" s="3">
@@ -4265,26 +4265,26 @@
         <v>1</v>
       </c>
       <c r="L60" s="3">
-        <f>J60-F60</f>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="M60" s="3">
-        <f>$L60-72</f>
+        <f t="shared" si="11"/>
         <v>-3</v>
       </c>
       <c r="N60" s="3">
         <v>274</v>
       </c>
       <c r="O60" s="3">
-        <f>$N60-$J60</f>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="P60" s="4">
-        <f>O60-72</f>
+        <f t="shared" si="13"/>
         <v>-4</v>
       </c>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
       <c r="V60" s="3"/>
     </row>
     <row r="61" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4301,7 +4301,7 @@
         <v>69</v>
       </c>
       <c r="E61" s="3">
-        <f>$D61-72</f>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="F61" s="3">
@@ -4311,11 +4311,11 @@
         <v>2</v>
       </c>
       <c r="H61" s="3">
-        <f>$F61-$D61</f>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="I61" s="3">
-        <f>$H61-72</f>
+        <f t="shared" si="9"/>
         <v>-5</v>
       </c>
       <c r="J61" s="3">
@@ -4325,26 +4325,26 @@
         <v>2</v>
       </c>
       <c r="L61" s="3">
-        <f>J61-F61</f>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="M61" s="3">
-        <f>$L61-72</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N61" s="3">
         <v>276</v>
       </c>
       <c r="O61" s="3">
-        <f>$N61-$J61</f>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="P61" s="4">
-        <f>O61-72</f>
+        <f t="shared" si="13"/>
         <v>-5</v>
       </c>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
       <c r="V61" s="3"/>
     </row>
     <row r="62" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4361,7 +4361,7 @@
         <v>70</v>
       </c>
       <c r="E62" s="3">
-        <f>$D62-72</f>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="F62" s="3">
@@ -4371,11 +4371,11 @@
         <v>1</v>
       </c>
       <c r="H62" s="3">
-        <f>$F62-$D62</f>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="I62" s="3">
-        <f>$H62-72</f>
+        <f t="shared" si="9"/>
         <v>-6</v>
       </c>
       <c r="J62" s="3">
@@ -4385,26 +4385,26 @@
         <v>1</v>
       </c>
       <c r="L62" s="3">
-        <f>J62-F62</f>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="M62" s="3">
-        <f>$L62-72</f>
+        <f t="shared" si="11"/>
         <v>-7</v>
       </c>
       <c r="N62" s="3">
         <v>270</v>
       </c>
       <c r="O62" s="3">
-        <f>$N62-$J62</f>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="P62" s="4">
-        <f>O62-72</f>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
       <c r="V62" s="3"/>
     </row>
     <row r="63" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4421,7 +4421,7 @@
         <v>74</v>
       </c>
       <c r="E63" s="3">
-        <f>$D63-72</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F63" s="3">
@@ -4431,11 +4431,11 @@
         <v>9</v>
       </c>
       <c r="H63" s="3">
-        <f>$F63-$D63</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="I63" s="3">
-        <f>$H63-72</f>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="J63" s="3">
@@ -4445,26 +4445,26 @@
         <v>2</v>
       </c>
       <c r="L63" s="3">
-        <f>J63-F63</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="M63" s="3">
-        <f>$L63-72</f>
+        <f t="shared" si="11"/>
         <v>-4</v>
       </c>
       <c r="N63" s="3">
         <v>279</v>
       </c>
       <c r="O63" s="3">
-        <f>$N63-$J63</f>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="P63" s="4">
-        <f>O63-72</f>
+        <f t="shared" si="13"/>
         <v>-5</v>
       </c>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
       <c r="V63" s="3"/>
     </row>
     <row r="64" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4481,7 +4481,7 @@
         <v>70</v>
       </c>
       <c r="E64" s="3">
-        <f>$D64-72</f>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="F64" s="3">
@@ -4491,11 +4491,11 @@
         <v>1</v>
       </c>
       <c r="H64" s="3">
-        <f>$F64-$D64</f>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="I64" s="3">
-        <f>$H64-72</f>
+        <f t="shared" si="9"/>
         <v>-6</v>
       </c>
       <c r="J64" s="3">
@@ -4505,26 +4505,26 @@
         <v>1</v>
       </c>
       <c r="L64" s="3">
-        <f>J64-F64</f>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="M64" s="3">
-        <f>$L64-72</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N64" s="3">
         <v>280</v>
       </c>
       <c r="O64" s="3">
-        <f>$N64-$J64</f>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="P64" s="4">
-        <f>O64-72</f>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
       <c r="V64" s="3"/>
     </row>
     <row r="65" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4541,7 +4541,7 @@
         <v>72</v>
       </c>
       <c r="E65" s="3">
-        <f>$D65-72</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F65" s="3">
@@ -4551,11 +4551,11 @@
         <v>2</v>
       </c>
       <c r="H65" s="3">
-        <f>$F65-$D65</f>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="I65" s="3">
-        <f>$H65-72</f>
+        <f t="shared" si="9"/>
         <v>-5</v>
       </c>
       <c r="J65" s="3">
@@ -4565,26 +4565,26 @@
         <v>1</v>
       </c>
       <c r="L65" s="3">
-        <f>J65-F65</f>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="M65" s="3">
-        <f>$L65-72</f>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="N65" s="3">
         <v>278</v>
       </c>
       <c r="O65" s="3">
-        <f>$N65-$J65</f>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="P65" s="4">
-        <f>O65-72</f>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
       <c r="V65" s="3"/>
     </row>
     <row r="66" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4601,7 +4601,7 @@
         <v>70</v>
       </c>
       <c r="E66" s="3">
-        <f>$D66-72</f>
+        <f t="shared" ref="E66:E88" si="14">$D66-72</f>
         <v>-2</v>
       </c>
       <c r="F66" s="3">
@@ -4611,11 +4611,11 @@
         <v>2</v>
       </c>
       <c r="H66" s="3">
-        <f>$F66-$D66</f>
+        <f t="shared" ref="H66:H88" si="15">$F66-$D66</f>
         <v>66</v>
       </c>
       <c r="I66" s="3">
-        <f>$H66-72</f>
+        <f t="shared" ref="I66:I89" si="16">$H66-72</f>
         <v>-6</v>
       </c>
       <c r="J66" s="3">
@@ -4625,26 +4625,26 @@
         <v>1</v>
       </c>
       <c r="L66" s="3">
-        <f>J66-F66</f>
+        <f t="shared" ref="L66:L88" si="17">J66-F66</f>
         <v>68</v>
       </c>
       <c r="M66" s="3">
-        <f>$L66-72</f>
+        <f t="shared" ref="M66:M89" si="18">$L66-72</f>
         <v>-4</v>
       </c>
       <c r="N66" s="3">
         <v>272</v>
       </c>
       <c r="O66" s="3">
-        <f>$N66-$J66</f>
+        <f t="shared" ref="O66:O88" si="19">$N66-$J66</f>
         <v>68</v>
       </c>
       <c r="P66" s="4">
-        <f>O66-72</f>
+        <f t="shared" ref="P66:P89" si="20">O66-72</f>
         <v>-4</v>
       </c>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
       <c r="V66" s="3"/>
     </row>
     <row r="67" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4661,7 +4661,7 @@
         <v>70</v>
       </c>
       <c r="E67" s="3">
-        <f>$D67-72</f>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
       <c r="F67" s="3">
@@ -4671,11 +4671,11 @@
         <v>4</v>
       </c>
       <c r="H67" s="3">
-        <f>$F67-$D67</f>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="I67" s="3">
-        <f>$H67-72</f>
+        <f t="shared" si="16"/>
         <v>-3</v>
       </c>
       <c r="J67" s="3">
@@ -4685,26 +4685,26 @@
         <v>1</v>
       </c>
       <c r="L67" s="3">
-        <f>J67-F67</f>
+        <f t="shared" si="17"/>
         <v>66</v>
       </c>
       <c r="M67" s="3">
-        <f>$L67-72</f>
+        <f t="shared" si="18"/>
         <v>-6</v>
       </c>
       <c r="N67" s="3">
         <v>276</v>
       </c>
       <c r="O67" s="3">
-        <f>$N67-$J67</f>
+        <f t="shared" si="19"/>
         <v>71</v>
       </c>
       <c r="P67" s="4">
-        <f>O67-72</f>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
       <c r="V67" s="3"/>
     </row>
     <row r="68" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4721,7 +4721,7 @@
         <v>70</v>
       </c>
       <c r="E68" s="3">
-        <f>$D68-72</f>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
       <c r="F68" s="3">
@@ -4731,11 +4731,11 @@
         <v>1</v>
       </c>
       <c r="H68" s="3">
-        <f>$F68-$D68</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="I68" s="3">
-        <f>$H68-72</f>
+        <f t="shared" si="16"/>
         <v>-4</v>
       </c>
       <c r="J68" s="3">
@@ -4745,26 +4745,26 @@
         <v>2</v>
       </c>
       <c r="L68" s="3">
-        <f>J68-F68</f>
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
       <c r="M68" s="3">
-        <f>$L68-72</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="N68" s="3">
         <v>281</v>
       </c>
       <c r="O68" s="3">
-        <f>$N68-$J68</f>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="P68" s="4">
-        <f>O68-72</f>
+        <f t="shared" si="20"/>
         <v>-4</v>
       </c>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
       <c r="V68" s="3"/>
     </row>
     <row r="69" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4781,7 +4781,7 @@
         <v>72</v>
       </c>
       <c r="E69" s="3">
-        <f>$D69-72</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F69" s="3">
@@ -4791,11 +4791,11 @@
         <v>4</v>
       </c>
       <c r="H69" s="3">
-        <f>$F69-$D69</f>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="I69" s="3">
-        <f>$H69-72</f>
+        <f t="shared" si="16"/>
         <v>-3</v>
       </c>
       <c r="J69" s="3">
@@ -4805,26 +4805,26 @@
         <v>1</v>
       </c>
       <c r="L69" s="3">
-        <f>J69-F69</f>
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
       <c r="M69" s="3">
-        <f>$L69-72</f>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="N69" s="3">
         <v>279</v>
       </c>
       <c r="O69" s="3">
-        <f>$N69-$J69</f>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="P69" s="4">
-        <f>O69-72</f>
+        <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
       <c r="V69" s="3"/>
     </row>
     <row r="70" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4841,7 +4841,7 @@
         <v>74</v>
       </c>
       <c r="E70" s="3">
-        <f>$D70-72</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F70" s="3">
@@ -4851,11 +4851,11 @@
         <v>3</v>
       </c>
       <c r="H70" s="3">
-        <f>$F70-$D70</f>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="I70" s="3">
-        <f>$H70-72</f>
+        <f t="shared" si="16"/>
         <v>-6</v>
       </c>
       <c r="J70" s="3">
@@ -4865,26 +4865,26 @@
         <v>1</v>
       </c>
       <c r="L70" s="3">
-        <f>J70-F70</f>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="M70" s="3">
-        <f>$L70-72</f>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="N70" s="3">
         <v>276</v>
       </c>
       <c r="O70" s="3">
-        <f>$N70-$J70</f>
+        <f t="shared" si="19"/>
         <v>71</v>
       </c>
       <c r="P70" s="4">
-        <f>O70-72</f>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
       <c r="V70" s="3"/>
     </row>
     <row r="71" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4901,7 +4901,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="3">
-        <f>$D71-72</f>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
       <c r="F71" s="3">
@@ -4911,11 +4911,11 @@
         <v>5</v>
       </c>
       <c r="H71" s="3">
-        <f>$F71-$D71</f>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="I71" s="3">
-        <f>$H71-72</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J71" s="3">
@@ -4925,26 +4925,26 @@
         <v>1</v>
       </c>
       <c r="L71" s="3">
-        <f>J71-F71</f>
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="M71" s="3">
-        <f>$L71-72</f>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="N71" s="3">
         <v>281</v>
       </c>
       <c r="O71" s="3">
-        <f>$N71-$J71</f>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="P71" s="4">
-        <f>O71-72</f>
+        <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
       <c r="V71" s="3"/>
     </row>
     <row r="72" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -4961,7 +4961,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="3">
-        <f>$D72-72</f>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="F72" s="3">
@@ -4971,11 +4971,11 @@
         <v>4</v>
       </c>
       <c r="H72" s="3">
-        <f>$F72-$D72</f>
+        <f t="shared" si="15"/>
         <v>73</v>
       </c>
       <c r="I72" s="3">
-        <f>$H72-72</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J72" s="3">
@@ -4985,26 +4985,26 @@
         <v>4</v>
       </c>
       <c r="L72" s="3">
-        <f>J72-F72</f>
+        <f t="shared" si="17"/>
         <v>76</v>
       </c>
       <c r="M72" s="3">
-        <f>$L72-72</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="N72" s="3">
         <v>289</v>
       </c>
       <c r="O72" s="3">
-        <f>$N72-$J72</f>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="P72" s="4">
-        <f>O72-72</f>
+        <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
       <c r="V72" s="3"/>
     </row>
     <row r="73" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5021,7 +5021,7 @@
         <v>68</v>
       </c>
       <c r="E73" s="3">
-        <f>$D73-72</f>
+        <f t="shared" si="14"/>
         <v>-4</v>
       </c>
       <c r="F73" s="3">
@@ -5031,11 +5031,11 @@
         <v>1</v>
       </c>
       <c r="H73" s="3">
-        <f>$F73-$D73</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="I73" s="3">
-        <f>$H73-72</f>
+        <f t="shared" si="16"/>
         <v>-4</v>
       </c>
       <c r="J73" s="3">
@@ -5045,26 +5045,26 @@
         <v>1</v>
       </c>
       <c r="L73" s="3">
-        <f>J73-F73</f>
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
       <c r="M73" s="3">
-        <f>$L73-72</f>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="N73" s="3">
         <v>280</v>
       </c>
       <c r="O73" s="3">
-        <f>$N73-$J73</f>
+        <f t="shared" si="19"/>
         <v>75</v>
       </c>
       <c r="P73" s="4">
-        <f>O73-72</f>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
       <c r="V73" s="3"/>
     </row>
     <row r="74" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5081,7 +5081,7 @@
         <v>68</v>
       </c>
       <c r="E74" s="3">
-        <f>$D74-72</f>
+        <f t="shared" si="14"/>
         <v>-4</v>
       </c>
       <c r="F74" s="3">
@@ -5091,11 +5091,11 @@
         <v>3</v>
       </c>
       <c r="H74" s="3">
-        <f>$F74-$D74</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="I74" s="3">
-        <f>$H74-72</f>
+        <f t="shared" si="16"/>
         <v>-4</v>
       </c>
       <c r="J74" s="3">
@@ -5105,26 +5105,26 @@
         <v>1</v>
       </c>
       <c r="L74" s="3">
-        <f>J74-F74</f>
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
       <c r="M74" s="3">
-        <f>$L74-72</f>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="N74" s="3">
         <v>276</v>
       </c>
       <c r="O74" s="3">
-        <f>$N74-$J74</f>
+        <f t="shared" si="19"/>
         <v>71</v>
       </c>
       <c r="P74" s="4">
-        <f>O74-72</f>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
       <c r="V74" s="3"/>
     </row>
     <row r="75" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5141,7 +5141,7 @@
         <v>67</v>
       </c>
       <c r="E75" s="3">
-        <f>$D75-72</f>
+        <f t="shared" si="14"/>
         <v>-5</v>
       </c>
       <c r="F75" s="3">
@@ -5151,11 +5151,11 @@
         <v>3</v>
       </c>
       <c r="H75" s="3">
-        <f>$F75-$D75</f>
+        <f t="shared" si="15"/>
         <v>71</v>
       </c>
       <c r="I75" s="3">
-        <f>$H75-72</f>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="J75" s="3">
@@ -5165,26 +5165,26 @@
         <v>2</v>
       </c>
       <c r="L75" s="3">
-        <f>J75-F75</f>
+        <f t="shared" si="17"/>
         <v>67</v>
       </c>
       <c r="M75" s="3">
-        <f>$L75-72</f>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="N75" s="3">
         <v>272</v>
       </c>
       <c r="O75" s="3">
-        <f>$N75-$J75</f>
+        <f t="shared" si="19"/>
         <v>67</v>
       </c>
       <c r="P75" s="4">
-        <f>O75-72</f>
+        <f t="shared" si="20"/>
         <v>-5</v>
       </c>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
       <c r="V75" s="3"/>
     </row>
     <row r="76" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5201,7 +5201,7 @@
         <v>69</v>
       </c>
       <c r="E76" s="3">
-        <f>$D76-72</f>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
       <c r="F76" s="3">
@@ -5211,11 +5211,11 @@
         <v>12</v>
       </c>
       <c r="H76" s="3">
-        <f>$F76-$D76</f>
+        <f t="shared" si="15"/>
         <v>71</v>
       </c>
       <c r="I76" s="3">
-        <f>$H76-72</f>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="J76" s="3">
@@ -5225,26 +5225,26 @@
         <v>2</v>
       </c>
       <c r="L76" s="3">
-        <f>J76-F76</f>
+        <f t="shared" si="17"/>
         <v>68</v>
       </c>
       <c r="M76" s="3">
-        <f>$L76-72</f>
+        <f t="shared" si="18"/>
         <v>-4</v>
       </c>
       <c r="N76" s="3">
         <v>274</v>
       </c>
       <c r="O76" s="3">
-        <f>$N76-$J76</f>
+        <f t="shared" si="19"/>
         <v>66</v>
       </c>
       <c r="P76" s="4">
-        <f>O76-72</f>
+        <f t="shared" si="20"/>
         <v>-6</v>
       </c>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
       <c r="V76" s="3"/>
     </row>
     <row r="77" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5261,7 +5261,7 @@
         <v>69</v>
       </c>
       <c r="E77" s="3">
-        <f>$D77-72</f>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
       <c r="F77" s="3">
@@ -5271,11 +5271,11 @@
         <v>3</v>
       </c>
       <c r="H77" s="3">
-        <f>$F77-$D77</f>
+        <f t="shared" si="15"/>
         <v>71</v>
       </c>
       <c r="I77" s="3">
-        <f>$H77-72</f>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="J77" s="3">
@@ -5285,26 +5285,26 @@
         <v>4</v>
       </c>
       <c r="L77" s="3">
-        <f>J77-F77</f>
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="M77" s="3">
-        <f>$L77-72</f>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="N77" s="3">
         <v>278</v>
       </c>
       <c r="O77" s="3">
-        <f>$N77-$J77</f>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="P77" s="4">
-        <f>O77-72</f>
+        <f t="shared" si="20"/>
         <v>-4</v>
       </c>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
       <c r="V77" s="3"/>
     </row>
     <row r="78" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5321,7 +5321,7 @@
         <v>69</v>
       </c>
       <c r="E78" s="3">
-        <f>$D78-72</f>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
       <c r="F78" s="3">
@@ -5331,11 +5331,11 @@
         <v>7</v>
       </c>
       <c r="H78" s="3">
-        <f>$F78-$D78</f>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="I78" s="3">
-        <f>$H78-72</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J78" s="3">
@@ -5345,26 +5345,26 @@
         <v>3</v>
       </c>
       <c r="L78" s="3">
-        <f>J78-F78</f>
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
       <c r="M78" s="3">
-        <f>$L78-72</f>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="N78" s="3">
         <v>279</v>
       </c>
       <c r="O78" s="3">
-        <f>$N78-$J78</f>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="P78" s="4">
-        <f>O78-72</f>
+        <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
       <c r="V78" s="3"/>
     </row>
     <row r="79" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5381,7 +5381,7 @@
         <v>69</v>
       </c>
       <c r="E79" s="3">
-        <f>$D79-72</f>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
       <c r="F79" s="3">
@@ -5391,11 +5391,11 @@
         <v>1</v>
       </c>
       <c r="H79" s="3">
-        <f>$F79-$D79</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="I79" s="3">
-        <f>$H79-72</f>
+        <f t="shared" si="16"/>
         <v>-4</v>
       </c>
       <c r="J79" s="3">
@@ -5405,26 +5405,26 @@
         <v>1</v>
       </c>
       <c r="L79" s="3">
-        <f>J79-F79</f>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="M79" s="3">
-        <f>$L79-72</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="N79" s="3">
         <v>280</v>
       </c>
       <c r="O79" s="3">
-        <f>$N79-$J79</f>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="P79" s="4">
-        <f>O79-72</f>
+        <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
       <c r="V79" s="3"/>
     </row>
     <row r="80" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5441,7 +5441,7 @@
         <v>64</v>
       </c>
       <c r="E80" s="3">
-        <f>$D80-72</f>
+        <f t="shared" si="14"/>
         <v>-8</v>
       </c>
       <c r="F80" s="3">
@@ -5451,11 +5451,11 @@
         <v>1</v>
       </c>
       <c r="H80" s="3">
-        <f>$F80-$D80</f>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="I80" s="3">
-        <f>$H80-72</f>
+        <f t="shared" si="16"/>
         <v>-6</v>
       </c>
       <c r="J80" s="3">
@@ -5465,26 +5465,26 @@
         <v>1</v>
       </c>
       <c r="L80" s="3">
-        <f>J80-F80</f>
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="M80" s="3">
-        <f>$L80-72</f>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="N80" s="3">
         <v>270</v>
       </c>
       <c r="O80" s="3">
-        <f>$N80-$J80</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="P80" s="4">
-        <f>O80-72</f>
+        <f t="shared" si="20"/>
         <v>-2</v>
       </c>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
       <c r="V80" s="3"/>
     </row>
     <row r="81" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5501,7 +5501,7 @@
         <v>70</v>
       </c>
       <c r="E81" s="3">
-        <f>$D81-72</f>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
       <c r="F81" s="3">
@@ -5511,11 +5511,11 @@
         <v>8</v>
       </c>
       <c r="H81" s="3">
-        <f>$F81-$D81</f>
+        <f t="shared" si="15"/>
         <v>74</v>
       </c>
       <c r="I81" s="3">
-        <f>$H81-72</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J81" s="3">
@@ -5525,26 +5525,26 @@
         <v>5</v>
       </c>
       <c r="L81" s="3">
-        <f>J81-F81</f>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="M81" s="3">
-        <f>$L81-72</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>283</v>
       </c>
       <c r="O81" s="3">
-        <f>$N81-$J81</f>
+        <f t="shared" si="19"/>
         <v>67</v>
       </c>
       <c r="P81" s="4">
-        <f>O81-72</f>
+        <f t="shared" si="20"/>
         <v>-5</v>
       </c>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
       <c r="V81" s="3"/>
     </row>
     <row r="82" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5561,7 +5561,7 @@
         <v>71</v>
       </c>
       <c r="E82" s="3">
-        <f>$D82-72</f>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="F82" s="3">
@@ -5571,11 +5571,11 @@
         <v>1</v>
       </c>
       <c r="H82" s="3">
-        <f>$F82-$D82</f>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="I82" s="3">
-        <f>$H82-72</f>
+        <f t="shared" si="16"/>
         <v>-3</v>
       </c>
       <c r="J82" s="3">
@@ -5585,26 +5585,26 @@
         <v>1</v>
       </c>
       <c r="L82" s="3">
-        <f>J82-F82</f>
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="M82" s="3">
-        <f>$L82-72</f>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="N82" s="3">
         <v>279</v>
       </c>
       <c r="O82" s="3">
-        <f>$N82-$J82</f>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="P82" s="4">
-        <f>O82-72</f>
+        <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
       <c r="V82" s="3"/>
     </row>
     <row r="83" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5621,7 +5621,7 @@
         <v>69</v>
       </c>
       <c r="E83" s="3">
-        <f>$D83-72</f>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
       <c r="F83" s="3">
@@ -5631,11 +5631,11 @@
         <v>1</v>
       </c>
       <c r="H83" s="3">
-        <f>$F83-$D83</f>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="I83" s="3">
-        <f>$H83-72</f>
+        <f t="shared" si="16"/>
         <v>-6</v>
       </c>
       <c r="J83" s="3">
@@ -5645,26 +5645,26 @@
         <v>1</v>
       </c>
       <c r="L83" s="3">
-        <f>J83-F83</f>
+        <f t="shared" si="17"/>
         <v>67</v>
       </c>
       <c r="M83" s="3">
-        <f>$L83-72</f>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="N83" s="3">
         <v>273</v>
       </c>
       <c r="O83" s="3">
-        <f>$N83-$J83</f>
+        <f t="shared" si="19"/>
         <v>71</v>
       </c>
       <c r="P83" s="4">
-        <f>O83-72</f>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
       <c r="V83" s="3"/>
     </row>
     <row r="84" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5681,7 +5681,7 @@
         <v>70</v>
       </c>
       <c r="E84" s="3">
-        <f>$D84-72</f>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
       <c r="F84" s="3">
@@ -5691,11 +5691,11 @@
         <v>6</v>
       </c>
       <c r="H84" s="3">
-        <f>$F84-$D84</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="I84" s="3">
-        <f>$H84-72</f>
+        <f t="shared" si="16"/>
         <v>-4</v>
       </c>
       <c r="J84" s="3">
@@ -5705,26 +5705,26 @@
         <v>2</v>
       </c>
       <c r="L84" s="3">
-        <f>J84-F84</f>
+        <f t="shared" si="17"/>
         <v>67</v>
       </c>
       <c r="M84" s="3">
-        <f>$L84-72</f>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="N84" s="3">
         <v>275</v>
       </c>
       <c r="O84" s="3">
-        <f>$N84-$J84</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="P84" s="4">
-        <f>O84-72</f>
+        <f t="shared" si="20"/>
         <v>-2</v>
       </c>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
       <c r="V84" s="3"/>
     </row>
     <row r="85" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5741,7 +5741,7 @@
         <v>65</v>
       </c>
       <c r="E85" s="3">
-        <f>$D85-72</f>
+        <f t="shared" si="14"/>
         <v>-7</v>
       </c>
       <c r="F85" s="3">
@@ -5751,11 +5751,11 @@
         <v>1</v>
       </c>
       <c r="H85" s="3">
-        <f>$F85-$D85</f>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="I85" s="3">
-        <f>$H85-72</f>
+        <f t="shared" si="16"/>
         <v>-2</v>
       </c>
       <c r="J85" s="3">
@@ -5765,26 +5765,26 @@
         <v>1</v>
       </c>
       <c r="L85" s="3">
-        <f>J85-F85</f>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="M85" s="3">
-        <f>$L85-72</f>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="N85" s="3">
         <v>268</v>
       </c>
       <c r="O85" s="3">
-        <f>$N85-$J85</f>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="P85" s="4">
-        <f>O85-72</f>
+        <f t="shared" si="20"/>
         <v>-4</v>
       </c>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
       <c r="V85" s="3"/>
     </row>
     <row r="86" spans="1:22" ht="20" x14ac:dyDescent="0.2">
@@ -5801,7 +5801,7 @@
         <v>69</v>
       </c>
       <c r="E86" s="3">
-        <f>$D86-72</f>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
       <c r="F86" s="3">
@@ -5811,11 +5811,11 @@
         <v>6</v>
       </c>
       <c r="H86" s="3">
-        <f>$F86-$D86</f>
+        <f t="shared" si="15"/>
         <v>71</v>
       </c>
       <c r="I86" s="3">
-        <f>$H86-72</f>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="J86" s="3">
@@ -5825,29 +5825,29 @@
         <v>1</v>
       </c>
       <c r="L86" s="3">
-        <f>J86-F86</f>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="M86" s="3">
-        <f>$L86-72</f>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="N86" s="3">
         <v>278</v>
       </c>
       <c r="O86" s="3">
-        <f>$N86-$J86</f>
+        <f t="shared" si="19"/>
         <v>73</v>
       </c>
       <c r="P86" s="4">
-        <f>O86-72</f>
-        <v>1</v>
-      </c>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
       <c r="V86" s="3"/>
     </row>
-    <row r="87" spans="1:22" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2022</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>69</v>
       </c>
       <c r="E87" s="3">
-        <f>$D87-72</f>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
       <c r="F87" s="3">
@@ -5871,11 +5871,11 @@
         <v>1</v>
       </c>
       <c r="H87" s="3">
-        <f>$F87-$D87</f>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="I87" s="3">
-        <f>$H87-72</f>
+        <f t="shared" si="16"/>
         <v>-5</v>
       </c>
       <c r="J87" s="3">
@@ -5885,87 +5885,144 @@
         <v>1</v>
       </c>
       <c r="L87" s="3">
-        <f>J87-F87</f>
+        <f t="shared" si="17"/>
         <v>71</v>
       </c>
       <c r="M87" s="3">
-        <f>$L87-72</f>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="N87" s="3">
         <v>278</v>
       </c>
       <c r="O87" s="3">
-        <f>$N87-$J87</f>
+        <f t="shared" si="19"/>
         <v>71</v>
       </c>
       <c r="P87" s="4">
-        <f>O87-72</f>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="V87" s="8"/>
-    </row>
-    <row r="88" spans="1:22" s="11" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A88" s="10">
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="V87" s="6"/>
+    </row>
+    <row r="88" spans="1:22" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A88" s="8">
         <v>2023</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C88" s="10">
-        <v>1</v>
-      </c>
-      <c r="D88" s="10">
+      <c r="C88" s="8">
+        <v>1</v>
+      </c>
+      <c r="D88" s="8">
         <v>65</v>
       </c>
-      <c r="E88" s="10">
-        <f>$D88-72</f>
+      <c r="E88" s="8">
+        <f t="shared" si="14"/>
         <v>-7</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="8">
         <v>134</v>
       </c>
-      <c r="G88" s="10">
-        <v>1</v>
-      </c>
-      <c r="H88" s="10">
-        <f>$F88-$D88</f>
+      <c r="G88" s="8">
+        <v>1</v>
+      </c>
+      <c r="H88" s="8">
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
-      <c r="I88" s="10">
-        <f>$H88-72</f>
+      <c r="I88" s="8">
+        <f t="shared" si="16"/>
         <v>-3</v>
       </c>
-      <c r="J88" s="10">
+      <c r="J88" s="8">
         <v>207</v>
       </c>
-      <c r="K88" s="10">
-        <v>2</v>
-      </c>
-      <c r="L88" s="10">
-        <f>J88-F88</f>
+      <c r="K88" s="8">
+        <v>2</v>
+      </c>
+      <c r="L88" s="8">
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
-      <c r="M88" s="10">
-        <f>$L88-72</f>
-        <v>1</v>
-      </c>
-      <c r="N88" s="10">
+      <c r="M88" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N88" s="8">
         <v>276</v>
       </c>
-      <c r="O88" s="10">
-        <f>$N88-$J88</f>
+      <c r="O88" s="8">
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
-      <c r="P88" s="10">
-        <f>O88-72</f>
+      <c r="P88" s="8">
+        <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
-      <c r="V88" s="10"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="V88" s="8"/>
+    </row>
+    <row r="89" spans="1:22" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A89" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="8">
+        <v>2</v>
+      </c>
+      <c r="D89" s="8">
+        <v>66</v>
+      </c>
+      <c r="E89" s="8">
+        <f>$D89-72</f>
+        <v>-6</v>
+      </c>
+      <c r="F89" s="8">
+        <v>138</v>
+      </c>
+      <c r="G89" s="8">
+        <v>9</v>
+      </c>
+      <c r="H89" s="8">
+        <v>72</v>
+      </c>
+      <c r="I89" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="8">
+        <v>209</v>
+      </c>
+      <c r="K89" s="8">
+        <v>7</v>
+      </c>
+      <c r="L89" s="8">
+        <v>71</v>
+      </c>
+      <c r="M89" s="8">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="N89" s="8">
+        <v>275</v>
+      </c>
+      <c r="O89" s="8">
+        <v>66</v>
+      </c>
+      <c r="P89" s="8">
+        <f t="shared" si="20"/>
+        <v>-6</v>
+      </c>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="V89" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P86" xr:uid="{2ADD9961-473D-E04F-B264-B4AF03F2105D}">

--- a/Masters_Scores.xlsx
+++ b/Masters_Scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasgwartz/Desktop/Job/Projects/Python/Masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2DDC4B-0F49-B846-A4EF-3575663FC8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24CF582-D535-F546-8B7E-B2AD2CE93A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{67E4DBFB-4AA8-0A4F-A49D-EE0116D15928}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15900" xr2:uid="{67E4DBFB-4AA8-0A4F-A49D-EE0116D15928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>Horton Smith</t>
   </si>
@@ -255,13 +255,16 @@
   </si>
   <si>
     <t>Jon Rahm</t>
+  </si>
+  <si>
+    <t>Rory McIlroy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,13 +287,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -303,6 +299,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -329,12 +339,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,18 +353,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -674,5355 +687,5409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADD9961-473D-E04F-B264-B4AF03F2105D}">
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="26.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25" style="5" customWidth="1"/>
-    <col min="6" max="15" width="20" style="5" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="5" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="26.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25" style="4" customWidth="1"/>
+    <col min="6" max="15" width="20" style="4" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="4" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="17" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="V1" s="2"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1934</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>70</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f t="shared" ref="E2:E33" si="0">$D2-72</f>
         <v>-2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>142</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
         <f t="shared" ref="H2:H33" si="1">$F2-$D2</f>
         <v>72</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I33" si="2">$H2-72</f>
         <v>0</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>212</v>
       </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
         <f t="shared" ref="L2:L33" si="3">J2-F2</f>
         <v>70</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <f t="shared" ref="M2:M33" si="4">$L2-72</f>
         <v>-2</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>284</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <f t="shared" ref="O2:O33" si="5">$N2-$J2</f>
         <v>72</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <f t="shared" ref="P2:P33" si="6">O2-72</f>
         <v>0</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="V2" s="3"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1935</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>68</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>139</v>
       </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>212</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>4</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>282</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="V3" s="3"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1936</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>74</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>145</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>213</v>
       </c>
-      <c r="K4" s="3">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>285</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="V4" s="3"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1937</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>66</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>138</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>213</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>3</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>283</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="V5" s="3"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>1938</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>71</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>143</v>
       </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>215</v>
       </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>285</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="V6" s="3"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>1939</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>72</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>140</v>
       </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>210</v>
       </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>279</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="V7" s="3"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>1940</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
         <v>67</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>139</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>209</v>
       </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>280</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="V8" s="3"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>1941</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
         <v>66</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>137</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>208</v>
       </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>280</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="V9" s="3"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>1942</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>68</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>135</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>207</v>
       </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>280</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="V10" s="3"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="V10" s="2"/>
     </row>
     <row r="11" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>1946</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>69</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>137</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>208</v>
       </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>282</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="V11" s="3"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>1947</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
         <v>69</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>140</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>210</v>
       </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="2">
         <v>281</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="V12" s="3"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>1948</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
         <v>70</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>140</v>
       </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>209</v>
       </c>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>279</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="V13" s="3"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>1949</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>8</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>73</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>148</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>14</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>215</v>
       </c>
-      <c r="K14" s="3">
-        <v>2</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <v>282</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="2">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="V14" s="3"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>1950</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
         <v>70</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>142</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>214</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>283</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="V15" s="3"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>1951</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>70</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>142</v>
       </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>212</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>3</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <v>280</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="V16" s="3"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>1952</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>70</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>137</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>214</v>
       </c>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="2">
         <v>286</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="2">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="V17" s="3"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>1953</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>4</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>70</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>139</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>205</v>
       </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="2">
         <v>274</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="V18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>1954</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>17</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>74</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>147</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>217</v>
       </c>
-      <c r="K19" s="3">
-        <v>2</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>289</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="2">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="V19" s="3"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>1955</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>4</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>72</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>137</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <f t="shared" si="2"/>
         <v>-7</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>209</v>
       </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <v>279</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="2">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="V20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>1956</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>11</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>72</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>143</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>7</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>218</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="2">
         <v>289</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="V21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>1957</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
         <v>72</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>145</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>6</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>217</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>6</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="2">
         <v>283</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="V22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>1958</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>6</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>70</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>143</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>6</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>211</v>
       </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="2">
         <v>284</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="V23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>1959</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>10</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>73</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>147</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>21</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>218</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>13</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="2">
         <v>284</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="V24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>1960</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
         <v>67</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>140</v>
       </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>212</v>
       </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="2">
         <v>282</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="2">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="V25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>1961</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>69</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>137</v>
       </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>206</v>
       </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="2">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="2">
         <v>280</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="2">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="V26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>1962</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>3</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>70</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>136</v>
       </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>205</v>
       </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="2">
         <v>280</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="2">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="3">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="V27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>1963</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>14</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>74</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>140</v>
       </c>
-      <c r="G28" s="3">
-        <v>2</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>214</v>
       </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="2">
         <v>286</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="2">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="V28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>1964</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
         <v>69</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>137</v>
       </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>206</v>
       </c>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="2">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="2">
         <v>276</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="2">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="V29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>1965</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="3">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
         <v>67</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>138</v>
       </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>202</v>
       </c>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3">
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="2">
         <f t="shared" si="4"/>
         <v>-8</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="2">
         <v>271</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="2">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="3">
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="V30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>1966</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
         <v>68</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>144</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>3</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>216</v>
       </c>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3">
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="2">
         <v>288</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="2">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="V31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>1967</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>17</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>73</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>141</v>
       </c>
-      <c r="G32" s="3">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>213</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="2">
         <v>280</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="2">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="3">
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="V32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="V32" s="2"/>
     </row>
     <row r="33" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>1968</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>7</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>70</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>140</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>3</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>211</v>
       </c>
-      <c r="K33" s="3">
-        <v>2</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="K33" s="2">
+        <v>2</v>
+      </c>
+      <c r="L33" s="2">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="2">
         <v>277</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="2">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="3">
         <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="V33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>1969</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
         <v>67</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <f t="shared" ref="E34:E65" si="7">$D34-72</f>
         <v>-5</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>140</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>3</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <f t="shared" ref="H34:H65" si="8">$F34-$D34</f>
         <v>73</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <f t="shared" ref="I34:I65" si="9">$H34-72</f>
         <v>1</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>209</v>
       </c>
-      <c r="K34" s="3">
-        <v>2</v>
-      </c>
-      <c r="L34" s="3">
+      <c r="K34" s="2">
+        <v>2</v>
+      </c>
+      <c r="L34" s="2">
         <f t="shared" ref="L34:L65" si="10">J34-F34</f>
         <v>69</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="2">
         <f t="shared" ref="M34:M65" si="11">$L34-72</f>
         <v>-3</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="2">
         <v>281</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="2">
         <f t="shared" ref="O34:O65" si="12">$N34-$J34</f>
         <v>72</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="3">
         <f t="shared" ref="P34:P65" si="13">O34-72</f>
         <v>0</v>
       </c>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="V34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>1970</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>11</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>72</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>140</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>3</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <f t="shared" si="9"/>
         <v>-4</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>208</v>
       </c>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="2">
         <f t="shared" si="11"/>
         <v>-4</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="2">
         <v>279</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="2">
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="3">
         <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="V35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>1971</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
         <v>66</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <f t="shared" si="7"/>
         <v>-6</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>139</v>
       </c>
-      <c r="G36" s="3">
-        <v>2</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>209</v>
       </c>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
-      <c r="L36" s="3">
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="2">
         <f t="shared" si="11"/>
         <v>-2</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="2">
         <v>279</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36" s="2">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="3">
         <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="V36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>1972</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
         <v>68</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <f t="shared" si="7"/>
         <v>-4</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>139</v>
       </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>212</v>
       </c>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
-      <c r="L37" s="3">
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="2">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="2">
         <v>286</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="2">
         <f t="shared" si="12"/>
         <v>74</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="3">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="V37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="V37" s="2"/>
     </row>
     <row r="38" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>1973</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
         <v>68</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <f t="shared" si="7"/>
         <v>-4</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>141</v>
       </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>215</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>5</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="2">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="2">
         <v>283</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="2">
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="3">
         <f t="shared" si="13"/>
         <v>-4</v>
       </c>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="V38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>1974</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>16</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>71</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>142</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>16</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>208</v>
       </c>
-      <c r="K39" s="3">
-        <v>2</v>
-      </c>
-      <c r="L39" s="3">
+      <c r="K39" s="2">
+        <v>2</v>
+      </c>
+      <c r="L39" s="2">
         <f t="shared" si="10"/>
         <v>66</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="2">
         <f t="shared" si="11"/>
         <v>-6</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="2">
         <v>278</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="2">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="3">
         <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="V39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>1975</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
         <v>68</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <f t="shared" si="7"/>
         <v>-4</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>135</v>
       </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3">
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="2">
         <f t="shared" si="9"/>
         <v>-5</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>208</v>
       </c>
-      <c r="K40" s="3">
-        <v>2</v>
-      </c>
-      <c r="L40" s="3">
+      <c r="K40" s="2">
+        <v>2</v>
+      </c>
+      <c r="L40" s="2">
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="2">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="2">
         <v>276</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="2">
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="3">
         <f t="shared" si="13"/>
         <v>-4</v>
       </c>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="V40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>1976</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
         <v>65</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <f t="shared" si="7"/>
         <v>-7</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>131</v>
       </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="2">
         <f t="shared" si="9"/>
         <v>-6</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>201</v>
       </c>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="2">
         <f t="shared" si="11"/>
         <v>-2</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="2">
         <v>271</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="2">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="3">
         <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="V41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="V41" s="2"/>
     </row>
     <row r="42" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>1977</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>4</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>70</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>139</v>
       </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <f t="shared" si="9"/>
         <v>-3</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>209</v>
       </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="2">
         <f t="shared" si="11"/>
         <v>-2</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="2">
         <v>276</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="2">
         <f t="shared" si="12"/>
         <v>67</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="3">
         <f t="shared" si="13"/>
         <v>-5</v>
       </c>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="V42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>1978</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>8</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>72</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>144</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>16</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>213</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>10</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="2">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="2">
         <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="2">
         <v>277</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="2">
         <f t="shared" si="12"/>
         <v>64</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="3">
         <f t="shared" si="13"/>
         <v>-8</v>
       </c>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="V43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>1979</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>11</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>70</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>141</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>12</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>210</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="2">
         <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="2">
         <v>280</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="2">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="3">
         <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="V44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="V44" s="2"/>
     </row>
     <row r="45" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>1980</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
         <v>66</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <f t="shared" si="7"/>
         <v>-6</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>135</v>
       </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <f t="shared" si="9"/>
         <v>-3</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>203</v>
       </c>
-      <c r="K45" s="3">
-        <v>1</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="2">
         <f t="shared" si="11"/>
         <v>-4</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="2">
         <v>275</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="2">
         <f t="shared" si="12"/>
         <v>72</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="V45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="V45" s="2"/>
     </row>
     <row r="46" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>1981</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>12</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>71</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>139</v>
       </c>
-      <c r="G46" s="3">
-        <v>2</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="G46" s="2">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="2">
         <f t="shared" si="9"/>
         <v>-4</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <v>209</v>
       </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="2">
         <f t="shared" si="11"/>
         <v>-2</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="2">
         <v>280</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="2">
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="3">
         <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="V46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>1982</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>18</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>75</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>144</v>
       </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="2">
         <f t="shared" si="9"/>
         <v>-3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <v>211</v>
       </c>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="2">
         <f t="shared" si="11"/>
         <v>-5</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="2">
         <v>284</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="2">
         <f t="shared" si="12"/>
         <v>73</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="3">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="V47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="V47" s="2"/>
     </row>
     <row r="48" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>1983</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>4</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>68</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <f t="shared" si="7"/>
         <v>-4</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>138</v>
       </c>
-      <c r="G48" s="3">
-        <v>2</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="2">
         <f t="shared" si="9"/>
         <v>-2</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <v>211</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="2">
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="2">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="2">
         <v>280</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="2">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="3">
         <f t="shared" si="13"/>
         <v>-3</v>
       </c>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="V48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="V48" s="2"/>
     </row>
     <row r="49" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>1984</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
         <v>67</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <f t="shared" si="7"/>
         <v>-5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>139</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>3</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <v>209</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="2">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="2">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="2">
         <f t="shared" si="11"/>
         <v>-2</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="2">
         <v>277</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="2">
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="3">
         <f t="shared" si="13"/>
         <v>-4</v>
       </c>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="V49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="V49" s="2"/>
     </row>
     <row r="50" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>1985</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>14</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>72</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>146</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>25</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <f t="shared" si="8"/>
         <v>74</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="2">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <v>214</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>3</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="2">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="2">
         <f t="shared" si="11"/>
         <v>-4</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="2">
         <v>282</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50" s="2">
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="3">
         <f t="shared" si="13"/>
         <v>-4</v>
       </c>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="V50" s="3"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="V50" s="2"/>
     </row>
     <row r="51" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>1986</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>25</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>74</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>145</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>17</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="2">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <v>214</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <v>9</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="2">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="2">
         <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="2">
         <v>279</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="2">
         <f t="shared" si="12"/>
         <v>65</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="3">
         <f t="shared" si="13"/>
         <v>-7</v>
       </c>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="V51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="V51" s="2"/>
     </row>
     <row r="52" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>1987</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="3">
-        <v>2</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2">
         <v>70</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>142</v>
       </c>
-      <c r="G52" s="3">
-        <v>2</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="G52" s="2">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <v>214</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="2">
         <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="2">
         <v>285</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="2">
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="3">
         <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="V52" s="3"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="V52" s="2"/>
     </row>
     <row r="53" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>1988</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>3</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>71</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>138</v>
       </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="H53" s="3">
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <f t="shared" si="9"/>
         <v>-5</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <v>210</v>
       </c>
-      <c r="K53" s="3">
-        <v>1</v>
-      </c>
-      <c r="L53" s="3">
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
         <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="2">
         <v>281</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53" s="2">
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="3">
         <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="V53" s="3"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="V53" s="2"/>
     </row>
     <row r="54" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>1989</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="3">
-        <v>2</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2">
         <v>68</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <f t="shared" si="7"/>
         <v>-4</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>141</v>
       </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="2">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <v>218</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <v>9</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="2">
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="2">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="2">
         <v>283</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="2">
         <f t="shared" si="12"/>
         <v>65</v>
       </c>
-      <c r="P54" s="4">
+      <c r="P54" s="3">
         <f t="shared" si="13"/>
         <v>-7</v>
       </c>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="V54" s="3"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="V54" s="2"/>
     </row>
     <row r="55" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>1990</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>12</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>71</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>143</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>10</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <v>209</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <v>3</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="2">
         <f t="shared" si="10"/>
         <v>66</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="2">
         <f t="shared" si="11"/>
         <v>-6</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55" s="2">
         <v>278</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O55" s="2">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="3">
         <f t="shared" si="13"/>
         <v>-3</v>
       </c>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="V55" s="3"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="V55" s="2"/>
     </row>
     <row r="56" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>1991</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>31</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>72</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>138</v>
       </c>
-      <c r="G56" s="3">
-        <v>2</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="G56" s="2">
+        <v>2</v>
+      </c>
+      <c r="H56" s="2">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="2">
         <f t="shared" si="9"/>
         <v>-6</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <v>205</v>
       </c>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
-      <c r="L56" s="3">
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="2">
         <f t="shared" si="11"/>
         <v>-5</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56" s="2">
         <v>277</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O56" s="2">
         <f t="shared" si="12"/>
         <v>72</v>
       </c>
-      <c r="P56" s="4">
+      <c r="P56" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="V56" s="3"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>1992</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>7</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>69</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <f t="shared" si="7"/>
         <v>-3</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>136</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="2">
         <v>3</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="2">
         <f t="shared" si="9"/>
         <v>-5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <v>205</v>
       </c>
-      <c r="K57" s="3">
-        <v>2</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="K57" s="2">
+        <v>2</v>
+      </c>
+      <c r="L57" s="2">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="2">
         <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="2">
         <v>275</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="2">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="3">
         <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="V57" s="3"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="V57" s="2"/>
     </row>
     <row r="58" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>1993</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>6</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>68</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <f t="shared" si="7"/>
         <v>-4</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>138</v>
       </c>
-      <c r="G58" s="3">
-        <v>2</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="G58" s="2">
+        <v>2</v>
+      </c>
+      <c r="H58" s="2">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="2">
         <f t="shared" si="9"/>
         <v>-2</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <v>207</v>
       </c>
-      <c r="K58" s="3">
-        <v>1</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="2">
         <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="2">
         <v>277</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="2">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="3">
         <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="V58" s="3"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="V58" s="2"/>
     </row>
     <row r="59" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>1994</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>26</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>74</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>141</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="2">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="2">
         <f t="shared" si="9"/>
         <v>-5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <v>210</v>
       </c>
-      <c r="K59" s="3">
-        <v>2</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="2">
+        <v>2</v>
+      </c>
+      <c r="L59" s="2">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="2">
         <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="2">
         <v>279</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="2">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="P59" s="4">
+      <c r="P59" s="3">
         <f t="shared" si="13"/>
         <v>-3</v>
       </c>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="V59" s="3"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="V59" s="2"/>
     </row>
     <row r="60" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>1995</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>16</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>70</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <v>137</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="2">
         <v>4</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="2">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="2">
         <f t="shared" si="9"/>
         <v>-5</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <v>206</v>
       </c>
-      <c r="K60" s="3">
-        <v>1</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="2">
         <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="2">
         <v>274</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="2">
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="3">
         <f t="shared" si="13"/>
         <v>-4</v>
       </c>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="V60" s="3"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>1996</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>6</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>69</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <f t="shared" si="7"/>
         <v>-3</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <v>136</v>
       </c>
-      <c r="G61" s="3">
-        <v>2</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="G61" s="2">
+        <v>2</v>
+      </c>
+      <c r="H61" s="2">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="2">
         <f t="shared" si="9"/>
         <v>-5</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <v>209</v>
       </c>
-      <c r="K61" s="3">
-        <v>2</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="K61" s="2">
+        <v>2</v>
+      </c>
+      <c r="L61" s="2">
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="M61" s="3">
+      <c r="M61" s="2">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="N61" s="3">
+      <c r="N61" s="2">
         <v>276</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O61" s="2">
         <f t="shared" si="12"/>
         <v>67</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="3">
         <f t="shared" si="13"/>
         <v>-5</v>
       </c>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="V61" s="3"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="V61" s="2"/>
     </row>
     <row r="62" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>1997</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>4</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>70</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <v>136</v>
       </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="2">
         <f t="shared" si="9"/>
         <v>-6</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <v>201</v>
       </c>
-      <c r="K62" s="3">
-        <v>1</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="2">
         <f t="shared" si="11"/>
         <v>-7</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="2">
         <v>270</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="2">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="P62" s="4">
+      <c r="P62" s="3">
         <f t="shared" si="13"/>
         <v>-3</v>
       </c>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="V62" s="3"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>1998</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>25</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>74</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <v>144</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="2">
         <v>9</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="2">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="2">
         <f t="shared" si="9"/>
         <v>-2</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <v>212</v>
       </c>
-      <c r="K63" s="3">
-        <v>2</v>
-      </c>
-      <c r="L63" s="3">
+      <c r="K63" s="2">
+        <v>2</v>
+      </c>
+      <c r="L63" s="2">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M63" s="2">
         <f t="shared" si="11"/>
         <v>-4</v>
       </c>
-      <c r="N63" s="3">
+      <c r="N63" s="2">
         <v>279</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O63" s="2">
         <f t="shared" si="12"/>
         <v>67</v>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="3">
         <f t="shared" si="13"/>
         <v>-5</v>
       </c>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="V63" s="3"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="V63" s="2"/>
     </row>
     <row r="64" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>1999</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>5</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>70</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <v>136</v>
       </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="3">
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="2">
         <f t="shared" si="9"/>
         <v>-6</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <v>209</v>
       </c>
-      <c r="K64" s="3">
-        <v>1</v>
-      </c>
-      <c r="L64" s="3">
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+      <c r="L64" s="2">
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M64" s="2">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N64" s="2">
         <v>280</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O64" s="2">
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="P64" s="4">
+      <c r="P64" s="3">
         <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="V64" s="3"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="V64" s="2"/>
     </row>
     <row r="65" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>2000</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>10</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>72</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <v>139</v>
       </c>
-      <c r="G65" s="3">
-        <v>2</v>
-      </c>
-      <c r="H65" s="3">
+      <c r="G65" s="2">
+        <v>2</v>
+      </c>
+      <c r="H65" s="2">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="2">
         <f t="shared" si="9"/>
         <v>-5</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="2">
         <v>209</v>
       </c>
-      <c r="K65" s="3">
-        <v>1</v>
-      </c>
-      <c r="L65" s="3">
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="M65" s="3">
+      <c r="M65" s="2">
         <f t="shared" si="11"/>
         <v>-2</v>
       </c>
-      <c r="N65" s="3">
+      <c r="N65" s="2">
         <v>278</v>
       </c>
-      <c r="O65" s="3">
+      <c r="O65" s="2">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="P65" s="4">
+      <c r="P65" s="3">
         <f t="shared" si="13"/>
         <v>-3</v>
       </c>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="V65" s="3"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="V65" s="2"/>
     </row>
     <row r="66" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>2001</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>15</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <v>70</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <f t="shared" ref="E66:E88" si="14">$D66-72</f>
         <v>-2</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <v>136</v>
       </c>
-      <c r="G66" s="3">
-        <v>2</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="G66" s="2">
+        <v>2</v>
+      </c>
+      <c r="H66" s="2">
         <f t="shared" ref="H66:H88" si="15">$F66-$D66</f>
         <v>66</v>
       </c>
-      <c r="I66" s="3">
-        <f t="shared" ref="I66:I89" si="16">$H66-72</f>
+      <c r="I66" s="2">
+        <f t="shared" ref="I66:I90" si="16">$H66-72</f>
         <v>-6</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <v>204</v>
       </c>
-      <c r="K66" s="3">
-        <v>1</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+      <c r="L66" s="2">
         <f t="shared" ref="L66:L88" si="17">J66-F66</f>
         <v>68</v>
       </c>
-      <c r="M66" s="3">
-        <f t="shared" ref="M66:M89" si="18">$L66-72</f>
+      <c r="M66" s="2">
+        <f t="shared" ref="M66:M90" si="18">$L66-72</f>
         <v>-4</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="2">
         <v>272</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="2">
         <f t="shared" ref="O66:O88" si="19">$N66-$J66</f>
         <v>68</v>
       </c>
-      <c r="P66" s="4">
-        <f t="shared" ref="P66:P89" si="20">O66-72</f>
+      <c r="P66" s="3">
+        <f t="shared" ref="P66:P90" si="20">O66-72</f>
         <v>-4</v>
       </c>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="V66" s="3"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="V66" s="2"/>
     </row>
     <row r="67" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>2002</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>7</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>70</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <f t="shared" si="14"/>
         <v>-2</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <v>139</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="2">
         <v>4</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="2">
         <f t="shared" si="15"/>
         <v>69</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="2">
         <f t="shared" si="16"/>
         <v>-3</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="2">
         <v>205</v>
       </c>
-      <c r="K67" s="3">
-        <v>1</v>
-      </c>
-      <c r="L67" s="3">
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2">
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M67" s="2">
         <f t="shared" si="18"/>
         <v>-6</v>
       </c>
-      <c r="N67" s="3">
+      <c r="N67" s="2">
         <v>276</v>
       </c>
-      <c r="O67" s="3">
+      <c r="O67" s="2">
         <f t="shared" si="19"/>
         <v>71</v>
       </c>
-      <c r="P67" s="4">
+      <c r="P67" s="3">
         <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="V67" s="3"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="V67" s="2"/>
     </row>
     <row r="68" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>2003</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>4</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <v>70</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <f t="shared" si="14"/>
         <v>-2</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <v>138</v>
       </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="3">
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
         <f t="shared" si="15"/>
         <v>68</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="2">
         <f t="shared" si="16"/>
         <v>-4</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="2">
         <v>213</v>
       </c>
-      <c r="K68" s="3">
-        <v>2</v>
-      </c>
-      <c r="L68" s="3">
+      <c r="K68" s="2">
+        <v>2</v>
+      </c>
+      <c r="L68" s="2">
         <f t="shared" si="17"/>
         <v>75</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M68" s="2">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="N68" s="3">
+      <c r="N68" s="2">
         <v>281</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O68" s="2">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="P68" s="4">
+      <c r="P68" s="3">
         <f t="shared" si="20"/>
         <v>-4</v>
       </c>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="V68" s="3"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="V68" s="2"/>
     </row>
     <row r="69" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>2004</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>15</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>72</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>141</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="2">
         <v>4</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="2">
         <f t="shared" si="15"/>
         <v>69</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="2">
         <f t="shared" si="16"/>
         <v>-3</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
         <v>210</v>
       </c>
-      <c r="K69" s="3">
-        <v>1</v>
-      </c>
-      <c r="L69" s="3">
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+      <c r="L69" s="2">
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M69" s="2">
         <f t="shared" si="18"/>
         <v>-3</v>
       </c>
-      <c r="N69" s="3">
+      <c r="N69" s="2">
         <v>279</v>
       </c>
-      <c r="O69" s="3">
+      <c r="O69" s="2">
         <f t="shared" si="19"/>
         <v>69</v>
       </c>
-      <c r="P69" s="4">
+      <c r="P69" s="3">
         <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="V69" s="3"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>2005</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>33</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>74</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <v>140</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="2">
         <v>3</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="2">
         <f t="shared" si="15"/>
         <v>66</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="2">
         <f t="shared" si="16"/>
         <v>-6</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="2">
         <v>205</v>
       </c>
-      <c r="K70" s="3">
-        <v>1</v>
-      </c>
-      <c r="L70" s="3">
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+      <c r="L70" s="2">
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M70" s="2">
         <f t="shared" si="18"/>
         <v>-7</v>
       </c>
-      <c r="N70" s="3">
+      <c r="N70" s="2">
         <v>276</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O70" s="2">
         <f t="shared" si="19"/>
         <v>71</v>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="3">
         <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="V70" s="3"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>2006</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>4</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>70</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <f t="shared" si="14"/>
         <v>-2</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <v>142</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="2">
         <v>5</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="2">
         <f t="shared" si="15"/>
         <v>72</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="2">
         <v>212</v>
       </c>
-      <c r="K71" s="3">
-        <v>1</v>
-      </c>
-      <c r="L71" s="3">
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="L71" s="2">
         <f t="shared" si="17"/>
         <v>70</v>
       </c>
-      <c r="M71" s="3">
+      <c r="M71" s="2">
         <f t="shared" si="18"/>
         <v>-2</v>
       </c>
-      <c r="N71" s="3">
+      <c r="N71" s="2">
         <v>281</v>
       </c>
-      <c r="O71" s="3">
+      <c r="O71" s="2">
         <f t="shared" si="19"/>
         <v>69</v>
       </c>
-      <c r="P71" s="4">
+      <c r="P71" s="3">
         <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="V71" s="3"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="V71" s="2"/>
     </row>
     <row r="72" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>2007</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <v>5</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>71</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <v>144</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="2">
         <v>4</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="2">
         <f t="shared" si="15"/>
         <v>73</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="2">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="2">
         <v>220</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="2">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="2">
         <f t="shared" si="17"/>
         <v>76</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="2">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="2">
         <v>289</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="2">
         <f t="shared" si="19"/>
         <v>69</v>
       </c>
-      <c r="P72" s="4">
+      <c r="P72" s="3">
         <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="V72" s="3"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="V72" s="2"/>
     </row>
     <row r="73" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>2008</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="3">
-        <v>1</v>
-      </c>
-      <c r="D73" s="3">
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
         <v>68</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <f t="shared" si="14"/>
         <v>-4</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <v>136</v>
       </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="3">
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
         <f t="shared" si="15"/>
         <v>68</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="2">
         <f t="shared" si="16"/>
         <v>-4</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="2">
         <v>205</v>
       </c>
-      <c r="K73" s="3">
-        <v>1</v>
-      </c>
-      <c r="L73" s="3">
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+      <c r="L73" s="2">
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="M73" s="3">
+      <c r="M73" s="2">
         <f t="shared" si="18"/>
         <v>-3</v>
       </c>
-      <c r="N73" s="3">
+      <c r="N73" s="2">
         <v>280</v>
       </c>
-      <c r="O73" s="3">
+      <c r="O73" s="2">
         <f t="shared" si="19"/>
         <v>75</v>
       </c>
-      <c r="P73" s="4">
+      <c r="P73" s="3">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="V73" s="3"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="V73" s="2"/>
     </row>
     <row r="74" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>2009</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <v>6</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>68</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <f t="shared" si="14"/>
         <v>-4</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <v>136</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="2">
         <v>3</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="2">
         <f t="shared" si="15"/>
         <v>68</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="2">
         <f t="shared" si="16"/>
         <v>-4</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="2">
         <v>205</v>
       </c>
-      <c r="K74" s="3">
-        <v>1</v>
-      </c>
-      <c r="L74" s="3">
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2">
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="M74" s="3">
+      <c r="M74" s="2">
         <f t="shared" si="18"/>
         <v>-3</v>
       </c>
-      <c r="N74" s="3">
+      <c r="N74" s="2">
         <v>276</v>
       </c>
-      <c r="O74" s="3">
+      <c r="O74" s="2">
         <f t="shared" si="19"/>
         <v>71</v>
       </c>
-      <c r="P74" s="4">
+      <c r="P74" s="3">
         <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="V74" s="3"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>2010</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="3">
-        <v>2</v>
-      </c>
-      <c r="D75" s="3">
+      <c r="C75" s="2">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2">
         <v>67</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="2">
         <f t="shared" si="14"/>
         <v>-5</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <v>138</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="2">
         <v>3</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="2">
         <f t="shared" si="15"/>
         <v>71</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="2">
         <f t="shared" si="16"/>
         <v>-1</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="2">
         <v>205</v>
       </c>
-      <c r="K75" s="3">
-        <v>2</v>
-      </c>
-      <c r="L75" s="3">
+      <c r="K75" s="2">
+        <v>2</v>
+      </c>
+      <c r="L75" s="2">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="M75" s="3">
+      <c r="M75" s="2">
         <f t="shared" si="18"/>
         <v>-5</v>
       </c>
-      <c r="N75" s="3">
+      <c r="N75" s="2">
         <v>272</v>
       </c>
-      <c r="O75" s="3">
+      <c r="O75" s="2">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="3">
         <f t="shared" si="20"/>
         <v>-5</v>
       </c>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="V75" s="3"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>2011</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <v>7</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>69</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="2">
         <v>140</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="2">
         <v>12</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="2">
         <f t="shared" si="15"/>
         <v>71</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="2">
         <f t="shared" si="16"/>
         <v>-1</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="2">
         <v>208</v>
       </c>
-      <c r="K76" s="3">
-        <v>2</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="K76" s="2">
+        <v>2</v>
+      </c>
+      <c r="L76" s="2">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="2">
         <f t="shared" si="18"/>
         <v>-4</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="2">
         <v>274</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="2">
         <f t="shared" si="19"/>
         <v>66</v>
       </c>
-      <c r="P76" s="4">
+      <c r="P76" s="3">
         <f t="shared" si="20"/>
         <v>-6</v>
       </c>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="V76" s="3"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>2012</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>4</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>69</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <v>140</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="2">
         <v>3</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="2">
         <f t="shared" si="15"/>
         <v>71</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="2">
         <f t="shared" si="16"/>
         <v>-1</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="2">
         <v>210</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="2">
         <v>4</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="2">
         <f t="shared" si="17"/>
         <v>70</v>
       </c>
-      <c r="M77" s="3">
+      <c r="M77" s="2">
         <f t="shared" si="18"/>
         <v>-2</v>
       </c>
-      <c r="N77" s="3">
+      <c r="N77" s="2">
         <v>278</v>
       </c>
-      <c r="O77" s="3">
+      <c r="O77" s="2">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="P77" s="4">
+      <c r="P77" s="3">
         <f t="shared" si="20"/>
         <v>-4</v>
       </c>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="V77" s="3"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="V77" s="2"/>
     </row>
     <row r="78" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>2013</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <v>10</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>69</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="2">
         <v>141</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="2">
         <v>7</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="2">
         <f t="shared" si="15"/>
         <v>72</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="2">
         <v>210</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="2">
         <v>3</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="2">
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="M78" s="3">
+      <c r="M78" s="2">
         <f t="shared" si="18"/>
         <v>-3</v>
       </c>
-      <c r="N78" s="3">
+      <c r="N78" s="2">
         <v>279</v>
       </c>
-      <c r="O78" s="3">
+      <c r="O78" s="2">
         <f t="shared" si="19"/>
         <v>69</v>
       </c>
-      <c r="P78" s="4">
+      <c r="P78" s="3">
         <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="V78" s="3"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>2014</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C79" s="3">
-        <v>2</v>
-      </c>
-      <c r="D79" s="3">
+      <c r="C79" s="2">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2">
         <v>69</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <v>137</v>
       </c>
-      <c r="G79" s="3">
-        <v>1</v>
-      </c>
-      <c r="H79" s="3">
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2">
         <f t="shared" si="15"/>
         <v>68</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="2">
         <f t="shared" si="16"/>
         <v>-4</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="2">
         <v>211</v>
       </c>
-      <c r="K79" s="3">
-        <v>1</v>
-      </c>
-      <c r="L79" s="3">
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+      <c r="L79" s="2">
         <f t="shared" si="17"/>
         <v>74</v>
       </c>
-      <c r="M79" s="3">
+      <c r="M79" s="2">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="N79" s="3">
+      <c r="N79" s="2">
         <v>280</v>
       </c>
-      <c r="O79" s="3">
+      <c r="O79" s="2">
         <f t="shared" si="19"/>
         <v>69</v>
       </c>
-      <c r="P79" s="4">
+      <c r="P79" s="3">
         <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="V79" s="3"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>2015</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="3">
-        <v>1</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
         <v>64</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <f t="shared" si="14"/>
         <v>-8</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <v>130</v>
       </c>
-      <c r="G80" s="3">
-        <v>1</v>
-      </c>
-      <c r="H80" s="3">
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2">
         <f t="shared" si="15"/>
         <v>66</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="2">
         <f t="shared" si="16"/>
         <v>-6</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="2">
         <v>200</v>
       </c>
-      <c r="K80" s="3">
-        <v>1</v>
-      </c>
-      <c r="L80" s="3">
+      <c r="K80" s="2">
+        <v>1</v>
+      </c>
+      <c r="L80" s="2">
         <f t="shared" si="17"/>
         <v>70</v>
       </c>
-      <c r="M80" s="3">
+      <c r="M80" s="2">
         <f t="shared" si="18"/>
         <v>-2</v>
       </c>
-      <c r="N80" s="3">
+      <c r="N80" s="2">
         <v>270</v>
       </c>
-      <c r="O80" s="3">
+      <c r="O80" s="2">
         <f t="shared" si="19"/>
         <v>70</v>
       </c>
-      <c r="P80" s="4">
+      <c r="P80" s="3">
         <f t="shared" si="20"/>
         <v>-2</v>
       </c>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
-      <c r="V80" s="3"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>2016</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="2">
         <v>9</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <v>70</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <f t="shared" si="14"/>
         <v>-2</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <v>144</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="2">
         <v>8</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="2">
         <f t="shared" si="15"/>
         <v>74</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="2">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="2">
         <v>216</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="2">
         <v>5</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="2">
         <f t="shared" si="17"/>
         <v>72</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="2">
         <v>283</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="2">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="P81" s="4">
+      <c r="P81" s="3">
         <f t="shared" si="20"/>
         <v>-5</v>
       </c>
-      <c r="R81" s="10"/>
-      <c r="S81" s="10"/>
-      <c r="V81" s="3"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="V81" s="2"/>
     </row>
     <row r="82" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>2017</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <v>4</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <v>71</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2">
         <v>140</v>
       </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="3">
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2">
         <f t="shared" si="15"/>
         <v>69</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="2">
         <f t="shared" si="16"/>
         <v>-3</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="2">
         <v>210</v>
       </c>
-      <c r="K82" s="3">
-        <v>1</v>
-      </c>
-      <c r="L82" s="3">
+      <c r="K82" s="2">
+        <v>1</v>
+      </c>
+      <c r="L82" s="2">
         <f t="shared" si="17"/>
         <v>70</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M82" s="2">
         <f t="shared" si="18"/>
         <v>-2</v>
       </c>
-      <c r="N82" s="3">
+      <c r="N82" s="2">
         <v>279</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O82" s="2">
         <f t="shared" si="19"/>
         <v>69</v>
       </c>
-      <c r="P82" s="4">
+      <c r="P82" s="3">
         <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
-      <c r="V82" s="3"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>2018</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <v>4</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>69</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <v>135</v>
       </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
         <f t="shared" si="15"/>
         <v>66</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="2">
         <f t="shared" si="16"/>
         <v>-6</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="2">
         <v>202</v>
       </c>
-      <c r="K83" s="3">
-        <v>1</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="2">
+        <v>1</v>
+      </c>
+      <c r="L83" s="2">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="2">
         <f t="shared" si="18"/>
         <v>-5</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="2">
         <v>273</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="2">
         <f t="shared" si="19"/>
         <v>71</v>
       </c>
-      <c r="P83" s="4">
+      <c r="P83" s="3">
         <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
-      <c r="V83" s="3"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="V83" s="2"/>
     </row>
     <row r="84" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>2019</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <v>11</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>70</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <f t="shared" si="14"/>
         <v>-2</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2">
         <v>138</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="2">
         <v>6</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="2">
         <f t="shared" si="15"/>
         <v>68</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="2">
         <f t="shared" si="16"/>
         <v>-4</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="2">
         <v>205</v>
       </c>
-      <c r="K84" s="3">
-        <v>2</v>
-      </c>
-      <c r="L84" s="3">
+      <c r="K84" s="2">
+        <v>2</v>
+      </c>
+      <c r="L84" s="2">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="M84" s="3">
+      <c r="M84" s="2">
         <f t="shared" si="18"/>
         <v>-5</v>
       </c>
-      <c r="N84" s="3">
+      <c r="N84" s="2">
         <v>275</v>
       </c>
-      <c r="O84" s="3">
+      <c r="O84" s="2">
         <f t="shared" si="19"/>
         <v>70</v>
       </c>
-      <c r="P84" s="4">
+      <c r="P84" s="3">
         <f t="shared" si="20"/>
         <v>-2</v>
       </c>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
-      <c r="V84" s="3"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="V84" s="2"/>
     </row>
     <row r="85" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>2020</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="3">
-        <v>1</v>
-      </c>
-      <c r="D85" s="3">
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
         <v>65</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <f t="shared" si="14"/>
         <v>-7</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2">
         <v>135</v>
       </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="3">
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2">
         <f t="shared" si="15"/>
         <v>70</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="2">
         <f t="shared" si="16"/>
         <v>-2</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="2">
         <v>200</v>
       </c>
-      <c r="K85" s="3">
-        <v>1</v>
-      </c>
-      <c r="L85" s="3">
+      <c r="K85" s="2">
+        <v>1</v>
+      </c>
+      <c r="L85" s="2">
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="M85" s="3">
+      <c r="M85" s="2">
         <f t="shared" si="18"/>
         <v>-7</v>
       </c>
-      <c r="N85" s="3">
+      <c r="N85" s="2">
         <v>268</v>
       </c>
-      <c r="O85" s="3">
+      <c r="O85" s="2">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="P85" s="4">
+      <c r="P85" s="3">
         <f t="shared" si="20"/>
         <v>-4</v>
       </c>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
-      <c r="V85" s="3"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="V85" s="2"/>
     </row>
     <row r="86" spans="1:22" ht="20" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>2021</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="3">
-        <v>2</v>
-      </c>
-      <c r="D86" s="3">
+      <c r="C86" s="2">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2">
         <v>69</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2">
         <v>140</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="2">
         <v>6</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="2">
         <f t="shared" si="15"/>
         <v>71</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="2">
         <f t="shared" si="16"/>
         <v>-1</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="2">
         <v>205</v>
       </c>
-      <c r="K86" s="3">
-        <v>1</v>
-      </c>
-      <c r="L86" s="3">
+      <c r="K86" s="2">
+        <v>1</v>
+      </c>
+      <c r="L86" s="2">
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="M86" s="3">
+      <c r="M86" s="2">
         <f t="shared" si="18"/>
         <v>-7</v>
       </c>
-      <c r="N86" s="3">
+      <c r="N86" s="2">
         <v>278</v>
       </c>
-      <c r="O86" s="3">
+      <c r="O86" s="2">
         <f t="shared" si="19"/>
         <v>73</v>
       </c>
-      <c r="P86" s="4">
+      <c r="P86" s="3">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="R86" s="10"/>
-      <c r="S86" s="10"/>
-      <c r="V86" s="3"/>
-    </row>
-    <row r="87" spans="1:22" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="V86" s="2"/>
+    </row>
+    <row r="87" spans="1:22" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <v>2022</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="2">
         <v>3</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <v>69</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="2">
         <v>136</v>
       </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="3">
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2">
         <f t="shared" si="15"/>
         <v>67</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="2">
         <f t="shared" si="16"/>
         <v>-5</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="2">
         <v>207</v>
       </c>
-      <c r="K87" s="3">
-        <v>1</v>
-      </c>
-      <c r="L87" s="3">
+      <c r="K87" s="2">
+        <v>1</v>
+      </c>
+      <c r="L87" s="2">
         <f t="shared" si="17"/>
         <v>71</v>
       </c>
-      <c r="M87" s="3">
+      <c r="M87" s="2">
         <f t="shared" si="18"/>
         <v>-1</v>
       </c>
-      <c r="N87" s="3">
+      <c r="N87" s="2">
         <v>278</v>
       </c>
-      <c r="O87" s="3">
+      <c r="O87" s="2">
         <f t="shared" si="19"/>
         <v>71</v>
       </c>
-      <c r="P87" s="4">
+      <c r="P87" s="3">
         <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="V87" s="6"/>
-    </row>
-    <row r="88" spans="1:22" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="V87" s="5"/>
+    </row>
+    <row r="88" spans="1:22" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
         <v>2023</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C88" s="8">
-        <v>1</v>
-      </c>
-      <c r="D88" s="8">
+      <c r="C88" s="7">
+        <v>1</v>
+      </c>
+      <c r="D88" s="7">
         <v>65</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="7">
         <f t="shared" si="14"/>
         <v>-7</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="7">
         <v>134</v>
       </c>
-      <c r="G88" s="8">
-        <v>1</v>
-      </c>
-      <c r="H88" s="8">
+      <c r="G88" s="7">
+        <v>1</v>
+      </c>
+      <c r="H88" s="7">
         <f t="shared" si="15"/>
         <v>69</v>
       </c>
-      <c r="I88" s="8">
+      <c r="I88" s="7">
         <f t="shared" si="16"/>
         <v>-3</v>
       </c>
-      <c r="J88" s="8">
+      <c r="J88" s="7">
         <v>207</v>
       </c>
-      <c r="K88" s="8">
-        <v>2</v>
-      </c>
-      <c r="L88" s="8">
+      <c r="K88" s="7">
+        <v>2</v>
+      </c>
+      <c r="L88" s="7">
         <f t="shared" si="17"/>
         <v>73</v>
       </c>
-      <c r="M88" s="8">
+      <c r="M88" s="7">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="N88" s="8">
+      <c r="N88" s="7">
         <v>276</v>
       </c>
-      <c r="O88" s="8">
+      <c r="O88" s="7">
         <f t="shared" si="19"/>
         <v>69</v>
       </c>
-      <c r="P88" s="8">
+      <c r="P88" s="7">
         <f t="shared" si="20"/>
         <v>-3</v>
       </c>
-      <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="V88" s="8"/>
-    </row>
-    <row r="89" spans="1:22" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="V88" s="7"/>
+    </row>
+    <row r="89" spans="1:22" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
         <v>2024</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="8">
-        <v>2</v>
-      </c>
-      <c r="D89" s="8">
+      <c r="C89" s="7">
+        <v>2</v>
+      </c>
+      <c r="D89" s="7">
         <v>66</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="7">
         <f>$D89-72</f>
         <v>-6</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F89" s="7">
         <v>138</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89" s="7">
         <v>9</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89" s="7">
         <v>72</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I89" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J89" s="8">
+      <c r="J89" s="7">
         <v>209</v>
       </c>
-      <c r="K89" s="8">
+      <c r="K89" s="7">
         <v>7</v>
       </c>
-      <c r="L89" s="8">
+      <c r="L89" s="7">
         <v>71</v>
       </c>
-      <c r="M89" s="8">
+      <c r="M89" s="7">
         <f t="shared" si="18"/>
         <v>-1</v>
       </c>
-      <c r="N89" s="8">
+      <c r="N89" s="7">
         <v>275</v>
       </c>
-      <c r="O89" s="8">
+      <c r="O89" s="7">
         <v>66</v>
       </c>
-      <c r="P89" s="8">
+      <c r="P89" s="7">
         <f t="shared" si="20"/>
         <v>-6</v>
       </c>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="V89" s="8"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="V89" s="7"/>
+    </row>
+    <row r="90" spans="1:22" ht="20" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>2025</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="7">
+        <v>27</v>
+      </c>
+      <c r="D90" s="7">
+        <v>72</v>
+      </c>
+      <c r="E90" s="7">
+        <f>$D90-72</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>138</v>
+      </c>
+      <c r="G90" s="7">
+        <v>3</v>
+      </c>
+      <c r="H90" s="7">
+        <v>66</v>
+      </c>
+      <c r="I90" s="7">
+        <f t="shared" si="16"/>
+        <v>-6</v>
+      </c>
+      <c r="J90" s="7">
+        <v>204</v>
+      </c>
+      <c r="K90" s="7">
+        <v>1</v>
+      </c>
+      <c r="L90" s="7">
+        <v>66</v>
+      </c>
+      <c r="M90" s="7">
+        <f t="shared" si="18"/>
+        <v>-6</v>
+      </c>
+      <c r="N90" s="7">
+        <v>277</v>
+      </c>
+      <c r="O90" s="7">
+        <v>73</v>
+      </c>
+      <c r="P90" s="7">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P86" xr:uid="{2ADD9961-473D-E04F-B264-B4AF03F2105D}">
@@ -6034,13 +6101,73 @@
     <sortCondition ref="A2:A87"/>
   </sortState>
   <mergeCells count="86">
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="R9:S9"/>
@@ -6053,73 +6180,13 @@
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
